--- a/META.xlsx
+++ b/META.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77473FD-CC5B-B84B-B1AF-DCFD93FC3953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F6546-0E10-C145-AC2B-1DEFBEF7D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="19000" windowHeight="17260" xr2:uid="{B52EBCF7-5E14-7E49-B5C0-EBD42BBEF305}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="12660" windowHeight="17260" activeTab="1" xr2:uid="{B52EBCF7-5E14-7E49-B5C0-EBD42BBEF305}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Main</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Tax%</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
@@ -133,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +178,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ArialMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -536,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65F09F1-95F6-E94F-B241-FF64300664C4}">
   <dimension ref="K2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -636,8 +662,8 @@
         <v>9</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!M17:EE17)+L5-L6</f>
-        <v>1799639.5081196227</v>
+        <f>NPV(L11,Model!S17:EK17)+L5-L6</f>
+        <v>1811144.7257137224</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -646,13 +672,13 @@
       </c>
       <c r="L13" s="7">
         <f>L12/L3</f>
-        <v>713.01089862108665</v>
+        <v>717.56922571859047</v>
       </c>
     </row>
     <row r="15" spans="11:13">
       <c r="L15">
         <f>L13/L2-1</f>
-        <v>0.18444283634188285</v>
+        <v>0.19201505983353351</v>
       </c>
     </row>
   </sheetData>
@@ -662,145 +688,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A98C1-3FA3-DE4C-BE95-2178A24448B4}">
-  <dimension ref="A1:EE30"/>
+  <dimension ref="A1:EK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="F5">
+    <row r="5" spans="1:44">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
         <v>2017</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>2018</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>2019</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>2020</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>2021</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>2022</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>2023</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>2024</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>2025</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>2026</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2027</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>2028</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>2029</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
         <v>2030</v>
       </c>
-      <c r="T5">
+      <c r="Z5">
         <v>2031</v>
       </c>
-      <c r="U5">
+      <c r="AA5">
         <v>2032</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:44">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="9">
+        <v>28645</v>
+      </c>
+      <c r="D6" s="9">
+        <v>31999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>34146</v>
+      </c>
       <c r="F6" s="9">
+        <f>R6-SUM(C6:E6)</f>
+        <v>40112</v>
+      </c>
+      <c r="G6" s="9">
+        <v>36455</v>
+      </c>
+      <c r="H6" s="9">
+        <v>39071</v>
+      </c>
+      <c r="I6" s="9">
+        <v>40589</v>
+      </c>
+      <c r="J6" s="9">
+        <f>F6*(1+J21)</f>
+        <v>46128.799999999996</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
         <v>40653</v>
       </c>
-      <c r="G6" s="9">
+      <c r="M6" s="9">
         <v>55838</v>
       </c>
-      <c r="H6" s="9">
+      <c r="N6" s="9">
         <v>70697</v>
       </c>
-      <c r="I6" s="9">
+      <c r="O6" s="9">
         <v>85965</v>
       </c>
-      <c r="J6" s="9">
+      <c r="P6" s="9">
         <v>117929</v>
       </c>
-      <c r="K6" s="9">
+      <c r="Q6" s="9">
         <v>116609</v>
       </c>
-      <c r="L6" s="9">
+      <c r="R6" s="9">
         <v>134902</v>
       </c>
-      <c r="M6" s="9">
-        <f>L6*(1+M21)</f>
-        <v>161882.4</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" ref="N6:U6" si="0">M6*(1+N21)</f>
-        <v>194258.87999999998</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>223397.71199999994</v>
-      </c>
-      <c r="P6" s="9">
-        <f t="shared" si="0"/>
-        <v>250205.43743999995</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>275225.98118399997</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" si="0"/>
-        <v>297244.05967872002</v>
-      </c>
       <c r="S6" s="9">
-        <f>R6*(1+S21)</f>
-        <v>318051.14385623042</v>
+        <f>SUM(G6:J6)</f>
+        <v>162243.79999999999</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="0"/>
-        <v>337134.21248760429</v>
+        <f t="shared" ref="T6:AA6" si="0">S6*(1+T21)</f>
+        <v>194692.55999999997</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="0"/>
-        <v>353990.92311198451</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+        <v>223896.44399999996</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="0"/>
+        <v>250764.01727999997</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="0"/>
+        <v>275840.419008</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="0"/>
+        <v>297907.65252864</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>X6*(1+Y21)</f>
+        <v>318761.18820564484</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="0"/>
+        <v>337886.85949798353</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="0"/>
+        <v>354781.20247288275</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -812,41 +881,62 @@
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+    </row>
+    <row r="7" spans="1:44">
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="9">
+        <v>6108</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5945</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6210</v>
+      </c>
       <c r="F7" s="9">
+        <f>R7-SUM(C7:E7)</f>
+        <v>7696</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6640</v>
+      </c>
+      <c r="H7" s="9">
+        <v>7308</v>
+      </c>
+      <c r="I7" s="9">
+        <v>7375</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
         <v>5454</v>
       </c>
-      <c r="G7" s="9">
+      <c r="M7" s="9">
         <v>9355</v>
       </c>
-      <c r="H7" s="9">
+      <c r="N7" s="9">
         <v>12770</v>
       </c>
-      <c r="I7" s="9">
+      <c r="O7" s="9">
         <v>16692</v>
       </c>
-      <c r="J7" s="9">
+      <c r="P7" s="9">
         <v>22649</v>
       </c>
-      <c r="K7" s="9">
+      <c r="Q7" s="9">
         <v>25249</v>
       </c>
-      <c r="L7" s="9">
+      <c r="R7" s="9">
         <v>25959</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -867,48 +957,75 @@
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+    </row>
+    <row r="8" spans="1:44">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="9">
+        <f>C6-C7</f>
+        <v>22537</v>
+      </c>
+      <c r="D8" s="9">
+        <f>D6-D7</f>
+        <v>26054</v>
+      </c>
+      <c r="E8" s="9">
+        <f>E6-E7</f>
+        <v>27936</v>
+      </c>
       <c r="F8" s="9">
-        <f>F6-F7</f>
+        <f t="shared" ref="F8:H8" si="1">F6-F7</f>
+        <v>32416</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>29815</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>31763</v>
+      </c>
+      <c r="I8" s="9">
+        <f>I6-I7</f>
+        <v>33214</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <f>L6-L7</f>
         <v>35199</v>
       </c>
-      <c r="G8" s="9">
-        <f>G6-G7</f>
+      <c r="M8" s="9">
+        <f>M6-M7</f>
         <v>46483</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" ref="H8:I8" si="1">H6-H7</f>
+      <c r="N8" s="9">
+        <f t="shared" ref="N8:O8" si="2">N6-N7</f>
         <v>57927</v>
       </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
+      <c r="O8" s="9">
+        <f t="shared" si="2"/>
         <v>69273</v>
       </c>
-      <c r="J8" s="9">
-        <f>J6-J7</f>
+      <c r="P8" s="9">
+        <f>P6-P7</f>
         <v>95280</v>
       </c>
-      <c r="K8" s="9">
-        <f t="shared" ref="K8:L8" si="2">K6-K7</f>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:R8" si="3">Q6-Q7</f>
         <v>91360</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" si="2"/>
+      <c r="R8" s="9">
+        <f t="shared" si="3"/>
         <v>108943</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -929,41 +1046,62 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+    </row>
+    <row r="9" spans="1:44">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="9">
+        <v>9381</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9344</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9241</v>
+      </c>
       <c r="F9" s="9">
+        <f>R9-SUM(C9:E9)</f>
+        <v>10517</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9978</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10537</v>
+      </c>
+      <c r="I9" s="9">
+        <v>11177</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
         <v>7754</v>
       </c>
-      <c r="G9" s="9">
+      <c r="M9" s="9">
         <v>10273</v>
       </c>
-      <c r="H9" s="9">
+      <c r="N9" s="9">
         <v>13600</v>
       </c>
-      <c r="I9" s="9">
+      <c r="O9" s="9">
         <v>18447</v>
       </c>
-      <c r="J9" s="9">
+      <c r="P9" s="9">
         <v>24655</v>
       </c>
-      <c r="K9" s="9">
+      <c r="Q9" s="9">
         <v>35338</v>
       </c>
-      <c r="L9" s="9">
+      <c r="R9" s="9">
         <v>38483</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -984,41 +1122,62 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+    </row>
+    <row r="10" spans="1:44">
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="9">
+        <v>3044</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3154</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2877</v>
+      </c>
       <c r="F10" s="9">
+        <f>R10-SUM(C10:E10)</f>
+        <v>3226</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2564</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2721</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2822</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
         <v>4725</v>
       </c>
-      <c r="G10" s="9">
+      <c r="M10" s="9">
         <v>7846</v>
       </c>
-      <c r="H10" s="9">
+      <c r="N10" s="9">
         <v>9876</v>
       </c>
-      <c r="I10" s="9">
+      <c r="O10" s="9">
         <v>11591</v>
       </c>
-      <c r="J10" s="9">
+      <c r="P10" s="9">
         <v>14043</v>
       </c>
-      <c r="K10" s="9">
+      <c r="Q10" s="9">
         <v>15262</v>
       </c>
-      <c r="L10" s="9">
+      <c r="R10" s="9">
         <v>12301</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -1039,41 +1198,62 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="9">
+        <v>2885</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4164</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2070</v>
+      </c>
       <c r="F11" s="9">
+        <f>R11-SUM(C11:E11)</f>
+        <v>2289</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3455</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3658</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1865</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
         <v>2517</v>
       </c>
-      <c r="G11" s="9">
+      <c r="M11" s="9">
         <v>3451</v>
       </c>
-      <c r="H11" s="9">
+      <c r="N11" s="9">
         <v>10465</v>
       </c>
-      <c r="I11" s="9">
+      <c r="O11" s="9">
         <v>6564</v>
       </c>
-      <c r="J11" s="9">
+      <c r="P11" s="9">
         <v>9829</v>
       </c>
-      <c r="K11" s="9">
+      <c r="Q11" s="9">
         <v>11816</v>
       </c>
-      <c r="L11" s="9">
+      <c r="R11" s="9">
         <v>11408</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -1094,48 +1274,75 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="9">
+        <f>SUM(C9:C11)</f>
+        <v>15310</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(D9:D11)</f>
+        <v>16662</v>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM(E9:E11)</f>
+        <v>14188</v>
+      </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:G12" si="3">SUM(F9:F11)</f>
+        <f t="shared" ref="F12:H12" si="4">SUM(F9:F11)</f>
+        <v>16032</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="4"/>
+        <v>15997</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="4"/>
+        <v>16916</v>
+      </c>
+      <c r="I12" s="9">
+        <f>SUM(I9:I11)</f>
+        <v>15864</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:M12" si="5">SUM(L9:L11)</f>
         <v>14996</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="3"/>
+      <c r="M12" s="9">
+        <f t="shared" si="5"/>
         <v>21570</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" ref="H12" si="4">SUM(H9:H11)</f>
+      <c r="N12" s="9">
+        <f t="shared" ref="N12" si="6">SUM(N9:N11)</f>
         <v>33941</v>
       </c>
-      <c r="I12" s="9">
-        <f t="shared" ref="I12" si="5">SUM(I9:I11)</f>
+      <c r="O12" s="9">
+        <f t="shared" ref="O12" si="7">SUM(O9:O11)</f>
         <v>36602</v>
       </c>
-      <c r="J12" s="9">
-        <f t="shared" ref="J12:K12" si="6">SUM(J9:J11)</f>
+      <c r="P12" s="9">
+        <f t="shared" ref="P12:Q12" si="8">SUM(P9:P11)</f>
         <v>48527</v>
       </c>
-      <c r="K12" s="9">
-        <f t="shared" si="6"/>
+      <c r="Q12" s="9">
+        <f t="shared" si="8"/>
         <v>62416</v>
       </c>
-      <c r="L12" s="9">
-        <f>SUM(L9:L11)</f>
+      <c r="R12" s="9">
+        <f>SUM(R9:R11)</f>
         <v>62192</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -1156,48 +1363,75 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+    </row>
+    <row r="13" spans="1:44">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="9">
+        <f>C8-C12</f>
+        <v>7227</v>
+      </c>
+      <c r="D13" s="9">
+        <f>D8-D12</f>
+        <v>9392</v>
+      </c>
+      <c r="E13" s="9">
+        <f>E8-E12</f>
+        <v>13748</v>
+      </c>
       <c r="F13" s="9">
-        <f t="shared" ref="F13:G13" si="7">F8-F12</f>
+        <f t="shared" ref="F13:H13" si="9">F8-F12</f>
+        <v>16384</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="9"/>
+        <v>13818</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="9"/>
+        <v>14847</v>
+      </c>
+      <c r="I13" s="9">
+        <f>I8-I12</f>
+        <v>17350</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13:M13" si="10">L8-L12</f>
         <v>20203</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="7"/>
+      <c r="M13" s="9">
+        <f t="shared" si="10"/>
         <v>24913</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" ref="H13" si="8">H8-H12</f>
+      <c r="N13" s="9">
+        <f t="shared" ref="N13" si="11">N8-N12</f>
         <v>23986</v>
       </c>
-      <c r="I13" s="9">
-        <f t="shared" ref="I13" si="9">I8-I12</f>
+      <c r="O13" s="9">
+        <f t="shared" ref="O13" si="12">O8-O12</f>
         <v>32671</v>
       </c>
-      <c r="J13" s="9">
-        <f t="shared" ref="J13:K13" si="10">J8-J12</f>
+      <c r="P13" s="9">
+        <f t="shared" ref="P13:Q13" si="13">P8-P12</f>
         <v>46753</v>
       </c>
-      <c r="K13" s="9">
-        <f t="shared" si="10"/>
+      <c r="Q13" s="9">
+        <f t="shared" si="13"/>
         <v>28944</v>
       </c>
-      <c r="L13" s="9">
-        <f>L8-L12</f>
+      <c r="R13" s="9">
+        <f>R8-R12</f>
         <v>46751</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -1218,41 +1452,62 @@
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+    </row>
+    <row r="14" spans="1:44">
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="9">
+        <v>80</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-99</v>
+      </c>
+      <c r="E14" s="9">
+        <v>272</v>
+      </c>
       <c r="F14" s="9">
+        <f>R14-SUM(C14:E14)</f>
+        <v>424</v>
+      </c>
+      <c r="G14" s="9">
+        <v>365</v>
+      </c>
+      <c r="H14" s="9">
+        <v>259</v>
+      </c>
+      <c r="I14" s="9">
+        <v>472</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
         <v>391</v>
       </c>
-      <c r="G14" s="9">
+      <c r="M14" s="9">
         <v>448</v>
       </c>
-      <c r="H14" s="9">
+      <c r="N14" s="9">
         <v>826</v>
       </c>
-      <c r="I14" s="9">
+      <c r="O14" s="9">
         <v>509</v>
       </c>
-      <c r="J14" s="9">
+      <c r="P14" s="9">
         <v>531</v>
       </c>
-      <c r="K14" s="9">
+      <c r="Q14" s="9">
         <v>-125</v>
       </c>
-      <c r="L14" s="9">
+      <c r="R14" s="9">
         <v>677</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -1273,48 +1528,75 @@
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+    </row>
+    <row r="15" spans="1:44">
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="9">
+        <f>C13+C14</f>
+        <v>7307</v>
+      </c>
+      <c r="D15" s="9">
+        <f>D13+D14</f>
+        <v>9293</v>
+      </c>
+      <c r="E15" s="9">
+        <f>E13+E14</f>
+        <v>14020</v>
+      </c>
       <c r="F15" s="9">
-        <f t="shared" ref="F15:I15" si="11">F13+F14</f>
+        <f t="shared" ref="F15:H15" si="14">F13+F14</f>
+        <v>16808</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="14"/>
+        <v>14183</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="14"/>
+        <v>15106</v>
+      </c>
+      <c r="I15" s="9">
+        <f>I13+I14</f>
+        <v>17822</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
+        <f t="shared" ref="L15:O15" si="15">L13+L14</f>
         <v>20594</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="11"/>
+      <c r="M15" s="9">
+        <f t="shared" si="15"/>
         <v>25361</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="11"/>
+      <c r="N15" s="9">
+        <f t="shared" si="15"/>
         <v>24812</v>
       </c>
-      <c r="I15" s="9">
-        <f t="shared" si="11"/>
+      <c r="O15" s="9">
+        <f t="shared" si="15"/>
         <v>33180</v>
       </c>
-      <c r="J15" s="9">
-        <f>J13+J14</f>
+      <c r="P15" s="9">
+        <f>P13+P14</f>
         <v>47284</v>
       </c>
-      <c r="K15" s="9">
-        <f t="shared" ref="K15:L15" si="12">K13+K14</f>
+      <c r="Q15" s="9">
+        <f t="shared" ref="Q15:R15" si="16">Q13+Q14</f>
         <v>28819</v>
       </c>
-      <c r="L15" s="9">
-        <f t="shared" si="12"/>
+      <c r="R15" s="9">
+        <f t="shared" si="16"/>
         <v>47428</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -1335,41 +1617,62 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+    </row>
+    <row r="16" spans="1:44">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="9">
+        <v>1598</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1505</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2437</v>
+      </c>
       <c r="F16" s="9">
+        <f>R16-SUM(C16:E16)</f>
+        <v>2790</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1814</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1641</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2134</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>4660</v>
       </c>
-      <c r="G16" s="9">
+      <c r="M16" s="9">
         <v>3249</v>
       </c>
-      <c r="H16" s="9">
+      <c r="N16" s="9">
         <v>6327</v>
       </c>
-      <c r="I16" s="9">
+      <c r="O16" s="9">
         <v>4034</v>
       </c>
-      <c r="J16" s="9">
+      <c r="P16" s="9">
         <v>7914</v>
       </c>
-      <c r="K16" s="9">
+      <c r="Q16" s="9">
         <v>5619</v>
       </c>
-      <c r="L16" s="9">
+      <c r="R16" s="9">
         <v>8330</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -1390,576 +1693,630 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
-    </row>
-    <row r="17" spans="2:135">
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+    </row>
+    <row r="17" spans="2:141">
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="9">
+        <f>C15-C16</f>
+        <v>5709</v>
+      </c>
+      <c r="D17" s="9">
+        <f>D15-D16</f>
+        <v>7788</v>
+      </c>
+      <c r="E17" s="9">
+        <f>E15-E16</f>
+        <v>11583</v>
+      </c>
       <c r="F17" s="9">
-        <f t="shared" ref="F17:G17" si="13">F15-F16</f>
+        <f t="shared" ref="F17:H17" si="17">F15-F16</f>
+        <v>14018</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="17"/>
+        <v>12369</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="17"/>
+        <v>13465</v>
+      </c>
+      <c r="I17" s="9">
+        <f>I15-I16</f>
+        <v>15688</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
+        <f t="shared" ref="L17:M17" si="18">L15-L16</f>
         <v>15934</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="13"/>
+      <c r="M17" s="9">
+        <f t="shared" si="18"/>
         <v>22112</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" ref="H17" si="14">H15-H16</f>
+      <c r="N17" s="9">
+        <f t="shared" ref="N17" si="19">N15-N16</f>
         <v>18485</v>
       </c>
-      <c r="I17" s="9">
-        <f t="shared" ref="I17" si="15">I15-I16</f>
+      <c r="O17" s="9">
+        <f t="shared" ref="O17" si="20">O15-O16</f>
         <v>29146</v>
       </c>
-      <c r="J17" s="9">
-        <f t="shared" ref="J17:K17" si="16">J15-J16</f>
+      <c r="P17" s="9">
+        <f t="shared" ref="P17:Q17" si="21">P15-P16</f>
         <v>39370</v>
       </c>
-      <c r="K17" s="9">
-        <f t="shared" si="16"/>
+      <c r="Q17" s="9">
+        <f t="shared" si="21"/>
         <v>23200</v>
       </c>
-      <c r="L17" s="9">
-        <f>L15-L16</f>
+      <c r="R17" s="9">
+        <f>R15-R16</f>
         <v>39098</v>
       </c>
-      <c r="M17" s="9">
-        <f>M6*M23</f>
-        <v>48564.719999999994</v>
-      </c>
-      <c r="N17" s="9">
-        <f t="shared" ref="N17:U17" si="17">N6*N23</f>
-        <v>67990.607999999993</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="17"/>
-        <v>80423.17631999997</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="17"/>
-        <v>90073.957478399985</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="17"/>
-        <v>99081.353226239982</v>
-      </c>
-      <c r="R17" s="9">
-        <f t="shared" si="17"/>
-        <v>107007.8614843392</v>
-      </c>
       <c r="S17" s="9">
-        <f t="shared" si="17"/>
-        <v>114498.41178824294</v>
+        <f>S6*S23</f>
+        <v>56785.329999999994</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" si="17"/>
-        <v>121368.31649553754</v>
+        <f t="shared" ref="T17:AA17" si="22">T6*T23</f>
+        <v>68142.395999999979</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="17"/>
-        <v>127436.73232031442</v>
+        <f t="shared" si="22"/>
+        <v>80602.719839999976</v>
       </c>
       <c r="V17" s="9">
-        <f>U17*(1+Main!$L$10)</f>
-        <v>128711.09964351756</v>
+        <f t="shared" si="22"/>
+        <v>90275.046220799981</v>
       </c>
       <c r="W17" s="9">
-        <f>V17*(1+Main!$L$10)</f>
-        <v>129998.21063995274</v>
+        <f t="shared" si="22"/>
+        <v>99302.550842879995</v>
       </c>
       <c r="X17" s="9">
-        <f>W17*(1+Main!$L$10)</f>
-        <v>131298.19274635226</v>
+        <f t="shared" si="22"/>
+        <v>107246.7549103104</v>
       </c>
       <c r="Y17" s="9">
-        <f>X17*(1+Main!$L$10)</f>
-        <v>132611.17467381578</v>
+        <f t="shared" si="22"/>
+        <v>114754.02775403214</v>
       </c>
       <c r="Z17" s="9">
-        <f>Y17*(1+Main!$L$10)</f>
-        <v>133937.28642055395</v>
+        <f t="shared" si="22"/>
+        <v>121639.26941927406</v>
       </c>
       <c r="AA17" s="9">
-        <f>Z17*(1+Main!$L$10)</f>
-        <v>135276.65928475949</v>
+        <f t="shared" si="22"/>
+        <v>127721.23289023779</v>
       </c>
       <c r="AB17" s="9">
         <f>AA17*(1+Main!$L$10)</f>
-        <v>136629.42587760708</v>
+        <v>128998.44521914017</v>
       </c>
       <c r="AC17" s="9">
         <f>AB17*(1+Main!$L$10)</f>
-        <v>137995.72013638314</v>
+        <v>130288.42967133157</v>
       </c>
       <c r="AD17" s="9">
         <f>AC17*(1+Main!$L$10)</f>
-        <v>139375.67733774698</v>
+        <v>131591.31396804488</v>
       </c>
       <c r="AE17" s="9">
         <f>AD17*(1+Main!$L$10)</f>
-        <v>140769.43411112446</v>
+        <v>132907.22710772534</v>
       </c>
       <c r="AF17" s="9">
         <f>AE17*(1+Main!$L$10)</f>
-        <v>142177.12845223572</v>
+        <v>134236.29937880259</v>
       </c>
       <c r="AG17" s="9">
         <f>AF17*(1+Main!$L$10)</f>
-        <v>143598.89973675809</v>
+        <v>135578.66237259062</v>
       </c>
       <c r="AH17" s="9">
         <f>AG17*(1+Main!$L$10)</f>
-        <v>145034.88873412568</v>
+        <v>136934.44899631653</v>
       </c>
       <c r="AI17" s="9">
         <f>AH17*(1+Main!$L$10)</f>
-        <v>146485.23762146695</v>
+        <v>138303.7934862797</v>
       </c>
       <c r="AJ17" s="9">
         <f>AI17*(1+Main!$L$10)</f>
-        <v>147950.08999768161</v>
+        <v>139686.8314211425</v>
       </c>
       <c r="AK17" s="9">
         <f>AJ17*(1+Main!$L$10)</f>
-        <v>149429.59089765843</v>
+        <v>141083.69973535393</v>
       </c>
       <c r="AL17" s="9">
         <f>AK17*(1+Main!$L$10)</f>
-        <v>150923.88680663501</v>
+        <v>142494.53673270746</v>
       </c>
       <c r="AM17" s="9">
         <f>AL17*(1+Main!$L$10)</f>
-        <v>152433.12567470135</v>
+        <v>143919.48210003454</v>
       </c>
       <c r="AN17" s="9">
         <f>AM17*(1+Main!$L$10)</f>
-        <v>153957.45693144837</v>
+        <v>145358.6769210349</v>
       </c>
       <c r="AO17" s="9">
         <f>AN17*(1+Main!$L$10)</f>
-        <v>155497.03150076285</v>
+        <v>146812.26369024525</v>
       </c>
       <c r="AP17" s="9">
         <f>AO17*(1+Main!$L$10)</f>
-        <v>157052.00181577049</v>
+        <v>148280.38632714772</v>
       </c>
       <c r="AQ17" s="9">
         <f>AP17*(1+Main!$L$10)</f>
-        <v>158622.52183392819</v>
+        <v>149763.19019041921</v>
       </c>
       <c r="AR17" s="9">
         <f>AQ17*(1+Main!$L$10)</f>
-        <v>160208.74705226746</v>
+        <v>151260.82209232339</v>
       </c>
       <c r="AS17" s="9">
         <f>AR17*(1+Main!$L$10)</f>
-        <v>161810.83452279013</v>
+        <v>152773.43031324662</v>
       </c>
       <c r="AT17" s="9">
         <f>AS17*(1+Main!$L$10)</f>
-        <v>163428.94286801803</v>
+        <v>154301.16461637907</v>
       </c>
       <c r="AU17" s="9">
         <f>AT17*(1+Main!$L$10)</f>
-        <v>165063.2322966982</v>
+        <v>155844.17626254287</v>
       </c>
       <c r="AV17" s="9">
         <f>AU17*(1+Main!$L$10)</f>
-        <v>166713.8646196652</v>
+        <v>157402.61802516831</v>
       </c>
       <c r="AW17" s="9">
         <f>AV17*(1+Main!$L$10)</f>
-        <v>168381.00326586186</v>
+        <v>158976.64420541999</v>
       </c>
       <c r="AX17" s="9">
         <f>AW17*(1+Main!$L$10)</f>
-        <v>170064.81329852049</v>
+        <v>160566.4106474742</v>
       </c>
       <c r="AY17" s="9">
         <f>AX17*(1+Main!$L$10)</f>
-        <v>171765.46143150568</v>
+        <v>162172.07475394895</v>
       </c>
       <c r="AZ17" s="9">
         <f>AY17*(1+Main!$L$10)</f>
-        <v>173483.11604582073</v>
+        <v>163793.79550148844</v>
       </c>
       <c r="BA17" s="9">
         <f>AZ17*(1+Main!$L$10)</f>
-        <v>175217.94720627894</v>
+        <v>165431.73345650331</v>
       </c>
       <c r="BB17" s="9">
         <f>BA17*(1+Main!$L$10)</f>
-        <v>176970.12667834174</v>
+        <v>167086.05079106835</v>
       </c>
       <c r="BC17" s="9">
         <f>BB17*(1+Main!$L$10)</f>
-        <v>178739.82794512514</v>
+        <v>168756.91129897904</v>
       </c>
       <c r="BD17" s="9">
         <f>BC17*(1+Main!$L$10)</f>
-        <v>180527.22622457638</v>
+        <v>170444.48041196883</v>
       </c>
       <c r="BE17" s="9">
         <f>BD17*(1+Main!$L$10)</f>
-        <v>182332.49848682215</v>
+        <v>172148.92521608854</v>
       </c>
       <c r="BF17" s="9">
         <f>BE17*(1+Main!$L$10)</f>
-        <v>184155.82347169038</v>
+        <v>173870.41446824942</v>
       </c>
       <c r="BG17" s="9">
         <f>BF17*(1+Main!$L$10)</f>
-        <v>185997.38170640729</v>
+        <v>175609.11861293192</v>
       </c>
       <c r="BH17" s="9">
         <f>BG17*(1+Main!$L$10)</f>
-        <v>187857.35552347137</v>
+        <v>177365.20979906124</v>
       </c>
       <c r="BI17" s="9">
         <f>BH17*(1+Main!$L$10)</f>
-        <v>189735.92907870607</v>
+        <v>179138.86189705186</v>
       </c>
       <c r="BJ17" s="9">
         <f>BI17*(1+Main!$L$10)</f>
-        <v>191633.28836949312</v>
+        <v>180930.25051602238</v>
       </c>
       <c r="BK17" s="9">
         <f>BJ17*(1+Main!$L$10)</f>
-        <v>193549.62125318806</v>
+        <v>182739.5530211826</v>
       </c>
       <c r="BL17" s="9">
         <f>BK17*(1+Main!$L$10)</f>
-        <v>195485.11746571993</v>
+        <v>184566.94855139442</v>
       </c>
       <c r="BM17" s="9">
         <f>BL17*(1+Main!$L$10)</f>
-        <v>197439.96864037713</v>
+        <v>186412.61803690836</v>
       </c>
       <c r="BN17" s="9">
         <f>BM17*(1+Main!$L$10)</f>
-        <v>199414.36832678091</v>
+        <v>188276.74421727745</v>
       </c>
       <c r="BO17" s="9">
         <f>BN17*(1+Main!$L$10)</f>
-        <v>201408.51201004873</v>
+        <v>190159.51165945022</v>
       </c>
       <c r="BP17" s="9">
         <f>BO17*(1+Main!$L$10)</f>
-        <v>203422.59713014922</v>
+        <v>192061.10677604473</v>
       </c>
       <c r="BQ17" s="9">
         <f>BP17*(1+Main!$L$10)</f>
-        <v>205456.82310145072</v>
+        <v>193981.71784380518</v>
       </c>
       <c r="BR17" s="9">
         <f>BQ17*(1+Main!$L$10)</f>
-        <v>207511.39133246522</v>
+        <v>195921.53502224322</v>
       </c>
       <c r="BS17" s="9">
         <f>BR17*(1+Main!$L$10)</f>
-        <v>209586.50524578989</v>
+        <v>197880.75037246564</v>
       </c>
       <c r="BT17" s="9">
         <f>BS17*(1+Main!$L$10)</f>
-        <v>211682.37029824778</v>
+        <v>199859.55787619029</v>
       </c>
       <c r="BU17" s="9">
         <f>BT17*(1+Main!$L$10)</f>
-        <v>213799.19400123027</v>
+        <v>201858.1534549522</v>
       </c>
       <c r="BV17" s="9">
         <f>BU17*(1+Main!$L$10)</f>
-        <v>215937.18594124258</v>
+        <v>203876.73498950174</v>
       </c>
       <c r="BW17" s="9">
         <f>BV17*(1+Main!$L$10)</f>
-        <v>218096.55780065502</v>
+        <v>205915.50233939677</v>
       </c>
       <c r="BX17" s="9">
         <f>BW17*(1+Main!$L$10)</f>
-        <v>220277.52337866157</v>
+        <v>207974.65736279075</v>
       </c>
       <c r="BY17" s="9">
         <f>BX17*(1+Main!$L$10)</f>
-        <v>222480.29861244818</v>
+        <v>210054.40393641865</v>
       </c>
       <c r="BZ17" s="9">
         <f>BY17*(1+Main!$L$10)</f>
-        <v>224705.10159857266</v>
+        <v>212154.94797578282</v>
       </c>
       <c r="CA17" s="9">
         <f>BZ17*(1+Main!$L$10)</f>
-        <v>226952.15261455838</v>
+        <v>214276.49745554067</v>
       </c>
       <c r="CB17" s="9">
         <f>CA17*(1+Main!$L$10)</f>
-        <v>229221.67414070395</v>
+        <v>216419.26243009607</v>
       </c>
       <c r="CC17" s="9">
         <f>CB17*(1+Main!$L$10)</f>
-        <v>231513.89088211098</v>
+        <v>218583.45505439703</v>
       </c>
       <c r="CD17" s="9">
         <f>CC17*(1+Main!$L$10)</f>
-        <v>233829.02979093208</v>
+        <v>220769.289604941</v>
       </c>
       <c r="CE17" s="9">
         <f>CD17*(1+Main!$L$10)</f>
-        <v>236167.3200888414</v>
+        <v>222976.98250099042</v>
       </c>
       <c r="CF17" s="9">
         <f>CE17*(1+Main!$L$10)</f>
-        <v>238528.99328972981</v>
+        <v>225206.75232600034</v>
       </c>
       <c r="CG17" s="9">
         <f>CF17*(1+Main!$L$10)</f>
-        <v>240914.28322262713</v>
+        <v>227458.81984926036</v>
       </c>
       <c r="CH17" s="9">
         <f>CG17*(1+Main!$L$10)</f>
-        <v>243323.42605485339</v>
+        <v>229733.40804775295</v>
       </c>
       <c r="CI17" s="9">
         <f>CH17*(1+Main!$L$10)</f>
-        <v>245756.66031540194</v>
+        <v>232030.74212823049</v>
       </c>
       <c r="CJ17" s="9">
         <f>CI17*(1+Main!$L$10)</f>
-        <v>248214.22691855597</v>
+        <v>234351.0495495128</v>
       </c>
       <c r="CK17" s="9">
         <f>CJ17*(1+Main!$L$10)</f>
-        <v>250696.36918774154</v>
+        <v>236694.56004500794</v>
       </c>
       <c r="CL17" s="9">
         <f>CK17*(1+Main!$L$10)</f>
-        <v>253203.33287961895</v>
+        <v>239061.505645458</v>
       </c>
       <c r="CM17" s="9">
         <f>CL17*(1+Main!$L$10)</f>
-        <v>255735.36620841513</v>
+        <v>241452.12070191259</v>
       </c>
       <c r="CN17" s="9">
         <f>CM17*(1+Main!$L$10)</f>
-        <v>258292.71987049928</v>
+        <v>243866.64190893172</v>
       </c>
       <c r="CO17" s="9">
         <f>CN17*(1+Main!$L$10)</f>
-        <v>260875.64706920428</v>
+        <v>246305.30832802103</v>
       </c>
       <c r="CP17" s="9">
         <f>CO17*(1+Main!$L$10)</f>
-        <v>263484.4035398963</v>
+        <v>248768.36141130124</v>
       </c>
       <c r="CQ17" s="9">
         <f>CP17*(1+Main!$L$10)</f>
-        <v>266119.24757529527</v>
+        <v>251256.04502541426</v>
       </c>
       <c r="CR17" s="9">
         <f>CQ17*(1+Main!$L$10)</f>
-        <v>268780.44005104824</v>
+        <v>253768.60547566842</v>
       </c>
       <c r="CS17" s="9">
         <f>CR17*(1+Main!$L$10)</f>
-        <v>271468.24445155874</v>
+        <v>256306.29153042511</v>
       </c>
       <c r="CT17" s="9">
         <f>CS17*(1+Main!$L$10)</f>
-        <v>274182.92689607432</v>
+        <v>258869.35444572935</v>
       </c>
       <c r="CU17" s="9">
         <f>CT17*(1+Main!$L$10)</f>
-        <v>276924.75616503507</v>
+        <v>261458.04799018663</v>
       </c>
       <c r="CV17" s="9">
         <f>CU17*(1+Main!$L$10)</f>
-        <v>279694.00372668542</v>
+        <v>264072.62847008853</v>
       </c>
       <c r="CW17" s="9">
         <f>CV17*(1+Main!$L$10)</f>
-        <v>282490.94376395229</v>
+        <v>266713.35475478944</v>
       </c>
       <c r="CX17" s="9">
         <f>CW17*(1+Main!$L$10)</f>
-        <v>285315.85320159182</v>
+        <v>269380.48830233735</v>
       </c>
       <c r="CY17" s="9">
         <f>CX17*(1+Main!$L$10)</f>
-        <v>288169.01173360774</v>
+        <v>272074.29318536073</v>
       </c>
       <c r="CZ17" s="9">
         <f>CY17*(1+Main!$L$10)</f>
-        <v>291050.70185094379</v>
+        <v>274795.03611721436</v>
       </c>
       <c r="DA17" s="9">
         <f>CZ17*(1+Main!$L$10)</f>
-        <v>293961.20886945323</v>
+        <v>277542.98647838651</v>
       </c>
       <c r="DB17" s="9">
         <f>DA17*(1+Main!$L$10)</f>
-        <v>296900.82095814776</v>
+        <v>280318.41634317039</v>
       </c>
       <c r="DC17" s="9">
         <f>DB17*(1+Main!$L$10)</f>
-        <v>299869.82916772924</v>
+        <v>283121.60050660209</v>
       </c>
       <c r="DD17" s="9">
         <f>DC17*(1+Main!$L$10)</f>
-        <v>302868.52745940653</v>
+        <v>285952.81651166809</v>
       </c>
       <c r="DE17" s="9">
         <f>DD17*(1+Main!$L$10)</f>
-        <v>305897.21273400058</v>
+        <v>288812.34467678476</v>
       </c>
       <c r="DF17" s="9">
         <f>DE17*(1+Main!$L$10)</f>
-        <v>308956.18486134062</v>
+        <v>291700.46812355262</v>
       </c>
       <c r="DG17" s="9">
         <f>DF17*(1+Main!$L$10)</f>
-        <v>312045.74670995405</v>
+        <v>294617.47280478815</v>
       </c>
       <c r="DH17" s="9">
         <f>DG17*(1+Main!$L$10)</f>
-        <v>315166.20417705359</v>
+        <v>297563.64753283601</v>
       </c>
       <c r="DI17" s="9">
         <f>DH17*(1+Main!$L$10)</f>
-        <v>318317.86621882411</v>
+        <v>300539.28400816437</v>
       </c>
       <c r="DJ17" s="9">
         <f>DI17*(1+Main!$L$10)</f>
-        <v>321501.04488101235</v>
+        <v>303544.67684824602</v>
       </c>
       <c r="DK17" s="9">
         <f>DJ17*(1+Main!$L$10)</f>
-        <v>324716.05532982247</v>
+        <v>306580.12361672847</v>
       </c>
       <c r="DL17" s="9">
         <f>DK17*(1+Main!$L$10)</f>
-        <v>327963.21588312072</v>
+        <v>309645.92485289573</v>
       </c>
       <c r="DM17" s="9">
         <f>DL17*(1+Main!$L$10)</f>
-        <v>331242.84804195195</v>
+        <v>312742.38410142466</v>
       </c>
       <c r="DN17" s="9">
         <f>DM17*(1+Main!$L$10)</f>
-        <v>334555.27652237145</v>
+        <v>315869.80794243893</v>
       </c>
       <c r="DO17" s="9">
         <f>DN17*(1+Main!$L$10)</f>
-        <v>337900.82928759517</v>
+        <v>319028.50602186332</v>
       </c>
       <c r="DP17" s="9">
         <f>DO17*(1+Main!$L$10)</f>
-        <v>341279.83758047112</v>
+        <v>322218.79108208197</v>
       </c>
       <c r="DQ17" s="9">
         <f>DP17*(1+Main!$L$10)</f>
-        <v>344692.63595627586</v>
+        <v>325440.97899290279</v>
       </c>
       <c r="DR17" s="9">
         <f>DQ17*(1+Main!$L$10)</f>
-        <v>348139.56231583864</v>
+        <v>328695.38878283184</v>
       </c>
       <c r="DS17" s="9">
         <f>DR17*(1+Main!$L$10)</f>
-        <v>351620.95793899702</v>
+        <v>331982.34267066017</v>
       </c>
       <c r="DT17" s="9">
         <f>DS17*(1+Main!$L$10)</f>
-        <v>355137.16751838697</v>
+        <v>335302.16609736677</v>
       </c>
       <c r="DU17" s="9">
         <f>DT17*(1+Main!$L$10)</f>
-        <v>358688.53919357085</v>
+        <v>338655.18775834044</v>
       </c>
       <c r="DV17" s="9">
         <f>DU17*(1+Main!$L$10)</f>
-        <v>362275.42458550655</v>
+        <v>342041.73963592388</v>
       </c>
       <c r="DW17" s="9">
         <f>DV17*(1+Main!$L$10)</f>
-        <v>365898.17883136164</v>
+        <v>345462.15703228314</v>
       </c>
       <c r="DX17" s="9">
         <f>DW17*(1+Main!$L$10)</f>
-        <v>369557.16061967524</v>
+        <v>348916.77860260598</v>
       </c>
       <c r="DY17" s="9">
         <f>DX17*(1+Main!$L$10)</f>
-        <v>373252.73222587199</v>
+        <v>352405.94638863206</v>
       </c>
       <c r="DZ17" s="9">
         <f>DY17*(1+Main!$L$10)</f>
-        <v>376985.25954813074</v>
+        <v>355930.00585251837</v>
       </c>
       <c r="EA17" s="9">
         <f>DZ17*(1+Main!$L$10)</f>
-        <v>380755.11214361206</v>
+        <v>359489.30591104354</v>
       </c>
       <c r="EB17" s="9">
         <f>EA17*(1+Main!$L$10)</f>
-        <v>384562.66326504818</v>
+        <v>363084.19897015399</v>
       </c>
       <c r="EC17" s="9">
         <f>EB17*(1+Main!$L$10)</f>
-        <v>388408.28989769868</v>
+        <v>366715.04095985554</v>
       </c>
       <c r="ED17" s="9">
         <f>EC17*(1+Main!$L$10)</f>
-        <v>392292.37279667566</v>
+        <v>370382.19136945409</v>
       </c>
       <c r="EE17" s="9">
         <f>ED17*(1+Main!$L$10)</f>
-        <v>396215.29652464244</v>
-      </c>
-    </row>
-    <row r="18" spans="2:135">
+        <v>374086.01328314864</v>
+      </c>
+      <c r="EF17" s="9">
+        <f>EE17*(1+Main!$L$10)</f>
+        <v>377826.87341598014</v>
+      </c>
+      <c r="EG17" s="9">
+        <f>EF17*(1+Main!$L$10)</f>
+        <v>381605.14215013996</v>
+      </c>
+      <c r="EH17" s="9">
+        <f>EG17*(1+Main!$L$10)</f>
+        <v>385421.19357164134</v>
+      </c>
+      <c r="EI17" s="9">
+        <f>EH17*(1+Main!$L$10)</f>
+        <v>389275.40550735773</v>
+      </c>
+      <c r="EJ17" s="9">
+        <f>EI17*(1+Main!$L$10)</f>
+        <v>393168.15956243133</v>
+      </c>
+      <c r="EK17" s="9">
+        <f>EJ17*(1+Main!$L$10)</f>
+        <v>397099.84115805564</v>
+      </c>
+    </row>
+    <row r="18" spans="2:141">
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="8">
+        <f>C17/C19</f>
+        <v>2.1991525423728815</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D17/D19</f>
+        <v>2.9816232771822357</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17/E19</f>
+        <v>4.3858386974630825</v>
+      </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:I18" si="18">F17/F19</f>
+        <f t="shared" ref="F18:G18" si="23">F17/F19</f>
+        <v>5.3320654241156333</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="23"/>
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="H18" s="8">
+        <f>H17/H19</f>
+        <v>5.1590038314176248</v>
+      </c>
+      <c r="I18" s="8">
+        <f>I17/I19</f>
+        <v>6.0338461538461541</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8">
+        <f t="shared" ref="L18:O18" si="24">L17/L19</f>
         <v>5.3903924221921518</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="18"/>
+      <c r="M18" s="8">
+        <f t="shared" si="24"/>
         <v>7.5700102704553238</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" si="18"/>
+      <c r="N18" s="8">
+        <f t="shared" si="24"/>
         <v>6.4273296244784426</v>
       </c>
-      <c r="I18" s="8">
-        <f t="shared" si="18"/>
+      <c r="O18" s="8">
+        <f t="shared" si="24"/>
         <v>10.092105263157896</v>
       </c>
-      <c r="J18" s="8">
-        <f>J17/J19</f>
+      <c r="P18" s="8">
+        <f>P17/P19</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" ref="K18:L18" si="19">K17/K19</f>
+      <c r="Q18" s="8">
+        <f t="shared" ref="Q18:R18" si="25">Q17/Q19</f>
         <v>8.5862324204293117</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="19"/>
+      <c r="R18" s="8">
+        <f t="shared" si="25"/>
         <v>14.871814378090528</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -1980,41 +2337,61 @@
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-    </row>
-    <row r="19" spans="2:135">
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+    </row>
+    <row r="19" spans="2:141">
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="9">
+        <v>2596</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2612</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2641</v>
+      </c>
       <c r="F19" s="9">
+        <v>2629</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2625</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2610</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2600</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>2956</v>
       </c>
-      <c r="G19" s="9">
+      <c r="M19" s="9">
         <v>2921</v>
       </c>
-      <c r="H19" s="9">
+      <c r="N19" s="9">
         <v>2876</v>
       </c>
-      <c r="I19" s="9">
+      <c r="O19" s="9">
         <v>2888</v>
       </c>
-      <c r="J19" s="9">
+      <c r="P19" s="9">
         <v>2859</v>
       </c>
-      <c r="K19" s="9">
+      <c r="Q19" s="9">
         <v>2702</v>
       </c>
-      <c r="L19" s="9">
+      <c r="R19" s="9">
         <v>2629</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -2035,11 +2412,14 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
-    </row>
-    <row r="20" spans="2:135">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+    </row>
+    <row r="20" spans="2:141">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2073,72 +2453,90 @@
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
-    </row>
-    <row r="21" spans="2:135">
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+    </row>
+    <row r="21" spans="2:141">
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="10">
-        <f t="shared" ref="G21:J21" si="20">G6/F6-1</f>
+        <f>G6/C6-1</f>
+        <v>0.27264793157619138</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" ref="H21:I21" si="26">H6/D6-1</f>
+        <v>0.2210069064658271</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="26"/>
+        <v>0.18868974404029748</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10">
+        <f t="shared" ref="M21:P21" si="27">M6/L6-1</f>
         <v>0.37352716896661997</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="20"/>
+      <c r="N21" s="10">
+        <f t="shared" si="27"/>
         <v>0.26610910132884413</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="20"/>
+      <c r="O21" s="10">
+        <f t="shared" si="27"/>
         <v>0.21596390228722573</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" si="20"/>
+      <c r="P21" s="10">
+        <f t="shared" si="27"/>
         <v>0.37182574303495608</v>
       </c>
-      <c r="K21" s="10">
-        <f>K6/J6-1</f>
+      <c r="Q21" s="10">
+        <f>Q6/P6-1</f>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="L21" s="10">
-        <f>L6/K6-1</f>
+      <c r="R21" s="10">
+        <f>R6/Q6-1</f>
         <v>0.15687468377226454</v>
       </c>
-      <c r="M21" s="10">
+      <c r="S21" s="10">
+        <f>S6/R6-1</f>
+        <v>0.20267898177936572</v>
+      </c>
+      <c r="T21" s="10">
         <v>0.2</v>
       </c>
-      <c r="N21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="U21" s="10">
         <v>0.15</v>
       </c>
-      <c r="P21" s="10">
+      <c r="V21" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="W21" s="10">
         <v>0.1</v>
       </c>
-      <c r="R21" s="10">
+      <c r="X21" s="10">
         <v>0.08</v>
       </c>
-      <c r="S21" s="10">
+      <c r="Y21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T21" s="10">
+      <c r="Z21" s="10">
         <v>0.06</v>
       </c>
-      <c r="U21" s="10">
+      <c r="AA21" s="10">
         <v>0.05</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2150,48 +2548,78 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
-    </row>
-    <row r="22" spans="2:135">
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+    </row>
+    <row r="22" spans="2:141">
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:F22" si="28">C8/C6</f>
+        <v>0.7867690696456624</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="28"/>
+        <v>0.81421294415450485</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="28"/>
+        <v>0.81813389562467054</v>
+      </c>
       <c r="F22" s="10">
-        <f t="shared" ref="F22" si="21">F8/F6</f>
+        <f t="shared" si="28"/>
+        <v>0.8081372157957718</v>
+      </c>
+      <c r="G22" s="10">
+        <f>G8/G6</f>
+        <v>0.81785763269784661</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" ref="H22:J22" si="29">H8/H6</f>
+        <v>0.81295590079598679</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="29"/>
+        <v>0.81830052477272164</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10">
+        <f t="shared" ref="L22" si="30">L8/L6</f>
         <v>0.86584015939783043</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" ref="G22:I22" si="22">G8/G6</f>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22:O22" si="31">M8/M6</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="H22" s="10">
-        <f t="shared" si="22"/>
+      <c r="N22" s="10">
+        <f t="shared" si="31"/>
         <v>0.81936998741106415</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="22"/>
+      <c r="O22" s="10">
+        <f t="shared" si="31"/>
         <v>0.80582795323678236</v>
       </c>
-      <c r="J22" s="10">
-        <f>J8/J6</f>
+      <c r="P22" s="10">
+        <f>P8/P6</f>
         <v>0.80794376277251567</v>
       </c>
-      <c r="K22" s="10">
-        <f t="shared" ref="K22:L22" si="23">K8/K6</f>
+      <c r="Q22" s="10">
+        <f t="shared" ref="Q22:R22" si="32">Q8/Q6</f>
         <v>0.78347297378418479</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="23"/>
+      <c r="R22" s="10">
+        <f t="shared" si="32"/>
         <v>0.8075714222176098</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -2212,79 +2640,109 @@
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
-    </row>
-    <row r="23" spans="2:135">
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+    </row>
+    <row r="23" spans="2:141">
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:F23" si="33">C17/C6</f>
+        <v>0.19930179787048349</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="33"/>
+        <v>0.24338260570642833</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="33"/>
+        <v>0.33921982076963625</v>
+      </c>
       <c r="F23" s="10">
-        <f t="shared" ref="F23" si="24">F17/F6</f>
+        <f t="shared" si="33"/>
+        <v>0.34947147985640209</v>
+      </c>
+      <c r="G23" s="10">
+        <f>G17/G6</f>
+        <v>0.33929502125908656</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23:J23" si="34">H17/H6</f>
+        <v>0.34462900872770086</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="34"/>
+        <v>0.38650865998176848</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10">
+        <f t="shared" ref="L23" si="35">L17/L6</f>
         <v>0.39195139350109465</v>
       </c>
-      <c r="G23" s="10">
-        <f t="shared" ref="G23:I23" si="25">G17/G6</f>
+      <c r="M23" s="10">
+        <f t="shared" ref="M23:O23" si="36">M17/M6</f>
         <v>0.39600272216053584</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" si="25"/>
+      <c r="N23" s="10">
+        <f t="shared" si="36"/>
         <v>0.26146795479298979</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="25"/>
+      <c r="O23" s="10">
+        <f t="shared" si="36"/>
         <v>0.3390449601582039</v>
       </c>
-      <c r="J23" s="10">
-        <f>J17/J6</f>
+      <c r="P23" s="10">
+        <f>P17/P6</f>
         <v>0.33384494059985248</v>
       </c>
-      <c r="K23" s="10">
-        <f t="shared" ref="K23:Q23" si="26">K17/K6</f>
+      <c r="Q23" s="10">
+        <f t="shared" ref="Q23:R23" si="37">Q17/Q6</f>
         <v>0.19895548371051977</v>
       </c>
-      <c r="L23" s="10">
-        <f t="shared" si="26"/>
+      <c r="R23" s="10">
+        <f t="shared" si="37"/>
         <v>0.28982520644616094</v>
       </c>
-      <c r="M23" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N23" s="10">
+      <c r="S23" s="10">
         <v>0.35</v>
       </c>
-      <c r="O23" s="10">
+      <c r="T23" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="U23" s="10">
         <v>0.36</v>
       </c>
-      <c r="P23" s="10">
+      <c r="V23" s="10">
         <v>0.36</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="W23" s="10">
         <v>0.36</v>
       </c>
-      <c r="R23" s="10">
-        <f>Q23</f>
+      <c r="X23" s="10">
+        <f>W23</f>
         <v>0.36</v>
       </c>
-      <c r="S23" s="10">
-        <f t="shared" ref="S23:U23" si="27">R23</f>
+      <c r="Y23" s="10">
+        <f t="shared" ref="Y23:AA23" si="38">X23</f>
         <v>0.36</v>
       </c>
-      <c r="T23" s="10">
-        <f t="shared" si="27"/>
+      <c r="Z23" s="10">
+        <f t="shared" si="38"/>
         <v>0.36</v>
       </c>
-      <c r="U23" s="10">
-        <f t="shared" si="27"/>
+      <c r="AA23" s="10">
+        <f t="shared" si="38"/>
         <v>0.36</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2296,48 +2754,75 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
-    </row>
-    <row r="24" spans="2:135">
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+    </row>
+    <row r="24" spans="2:141">
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:F24" si="39">C16/C15</f>
+        <v>0.21869440262761736</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="39"/>
+        <v>0.16194985472936618</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="39"/>
+        <v>0.1738231098430813</v>
+      </c>
       <c r="F24" s="10">
-        <f t="shared" ref="F24" si="28">F16/F15</f>
+        <f t="shared" si="39"/>
+        <v>0.16599238457877202</v>
+      </c>
+      <c r="G24" s="10">
+        <f>G16/G15</f>
+        <v>0.12789959811041388</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:I24" si="40">H16/H15</f>
+        <v>0.10863233152389778</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="40"/>
+        <v>0.11973964762652901</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10">
+        <f t="shared" ref="L24" si="41">L16/L15</f>
         <v>0.22627949888316987</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:I24" si="29">G16/G15</f>
+      <c r="M24" s="10">
+        <f t="shared" ref="M24:O24" si="42">M16/M15</f>
         <v>0.12811009029612397</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="29"/>
+      <c r="N24" s="10">
+        <f t="shared" si="42"/>
         <v>0.25499758181525067</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="29"/>
+      <c r="O24" s="10">
+        <f t="shared" si="42"/>
         <v>0.12157926461723931</v>
       </c>
-      <c r="J24" s="10">
-        <f>J16/J15</f>
+      <c r="P24" s="10">
+        <f>P16/P15</f>
         <v>0.16737162676592504</v>
       </c>
-      <c r="K24" s="10">
-        <f t="shared" ref="K24:L24" si="30">K16/K15</f>
+      <c r="Q24" s="10">
+        <f t="shared" ref="Q24:R24" si="43">Q16/Q15</f>
         <v>0.19497553697213643</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="30"/>
+      <c r="R24" s="10">
+        <f t="shared" si="43"/>
         <v>0.17563464620055663</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -2358,24 +2843,27 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
-    </row>
-    <row r="25" spans="2:135">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+    </row>
+    <row r="25" spans="2:141">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -2396,24 +2884,27 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
-    </row>
-    <row r="26" spans="2:135">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+    </row>
+    <row r="26" spans="2:141">
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -2434,24 +2925,27 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
-    </row>
-    <row r="27" spans="2:135">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+    </row>
+    <row r="27" spans="2:141">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -2472,11 +2966,14 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
-    </row>
-    <row r="28" spans="2:135">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+    </row>
+    <row r="28" spans="2:141">
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2510,11 +3007,14 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
-    </row>
-    <row r="29" spans="2:135">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+    </row>
+    <row r="29" spans="2:141">
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2548,11 +3048,14 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
-    </row>
-    <row r="30" spans="2:135">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+    </row>
+    <row r="30" spans="2:141">
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2586,8 +3089,15 @@
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{18EF05D2-1B1A-EB4E-9CD2-C626C84ED084}"/>
   </hyperlinks>

--- a/META.xlsx
+++ b/META.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F6546-0E10-C145-AC2B-1DEFBEF7D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DD8178-6271-D545-AA31-00F77EFF921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="12660" windowHeight="17260" activeTab="1" xr2:uid="{B52EBCF7-5E14-7E49-B5C0-EBD42BBEF305}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="12660" windowHeight="17260" xr2:uid="{B52EBCF7-5E14-7E49-B5C0-EBD42BBEF305}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +185,30 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +233,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,6 +247,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -560,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65F09F1-95F6-E94F-B241-FF64300664C4}">
-  <dimension ref="K2:M15"/>
+  <dimension ref="K1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -571,12 +603,17 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="11:13">
+      <c r="M1" s="18">
+        <v>45680</v>
+      </c>
+    </row>
     <row r="2" spans="11:13">
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="3">
-        <v>601.98</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="11:13">
@@ -597,7 +634,7 @@
       </c>
       <c r="L4" s="4">
         <f>L2*L3</f>
-        <v>1519397.52</v>
+        <v>1587596</v>
       </c>
     </row>
     <row r="5" spans="11:13">
@@ -630,7 +667,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>1477320.52</v>
+        <v>1545519</v>
       </c>
     </row>
     <row r="8" spans="11:13">
@@ -663,7 +700,7 @@
       </c>
       <c r="L12" s="3">
         <f>NPV(L11,Model!S17:EK17)+L5-L6</f>
-        <v>1811144.7257137224</v>
+        <v>1751601.5316342483</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -672,13 +709,13 @@
       </c>
       <c r="L13" s="7">
         <f>L12/L3</f>
-        <v>717.56922571859047</v>
+        <v>693.97841982339469</v>
       </c>
     </row>
     <row r="15" spans="11:13">
-      <c r="L15">
+      <c r="L15" s="10">
         <f>L13/L2-1</f>
-        <v>0.19201505983353351</v>
+        <v>0.10330432404355272</v>
       </c>
     </row>
   </sheetData>
@@ -690,11 +727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A98C1-3FA3-DE4C-BE95-2178A24448B4}">
   <dimension ref="A1:EK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -782,111 +819,111 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
-      <c r="B6" t="s">
+    <row r="6" spans="1:44" s="11" customFormat="1">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>28645</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>31999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <v>34146</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="12">
         <f>R6-SUM(C6:E6)</f>
         <v>40112</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="12">
         <v>36455</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="12">
         <v>39071</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="12">
         <v>40589</v>
       </c>
-      <c r="J6" s="9">
-        <f>F6*(1+J21)</f>
-        <v>46128.799999999996</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
+      <c r="J6" s="12">
+        <f>F6*1.1712</f>
+        <v>46979.174400000004</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
         <v>40653</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <v>55838</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <v>70697</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="12">
         <v>85965</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="12">
         <v>117929</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="12">
         <v>116609</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="12">
         <v>134902</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="12">
         <f>SUM(G6:J6)</f>
-        <v>162243.79999999999</v>
-      </c>
-      <c r="T6" s="9">
+        <v>163094.17440000002</v>
+      </c>
+      <c r="T6" s="12">
         <f t="shared" ref="T6:AA6" si="0">S6*(1+T21)</f>
-        <v>194692.55999999997</v>
-      </c>
-      <c r="U6" s="9">
+        <v>187558.30056</v>
+      </c>
+      <c r="U6" s="12">
         <f t="shared" si="0"/>
-        <v>223896.44399999996</v>
-      </c>
-      <c r="V6" s="9">
+        <v>215692.045644</v>
+      </c>
+      <c r="V6" s="12">
         <f t="shared" si="0"/>
-        <v>250764.01727999997</v>
-      </c>
-      <c r="W6" s="9">
+        <v>241575.09112128001</v>
+      </c>
+      <c r="W6" s="12">
         <f t="shared" si="0"/>
-        <v>275840.419008</v>
-      </c>
-      <c r="X6" s="9">
+        <v>265732.60023340804</v>
+      </c>
+      <c r="X6" s="12">
         <f t="shared" si="0"/>
-        <v>297907.65252864</v>
-      </c>
-      <c r="Y6" s="9">
+        <v>286991.20825208072</v>
+      </c>
+      <c r="Y6" s="12">
         <f>X6*(1+Y21)</f>
-        <v>318761.18820564484</v>
-      </c>
-      <c r="Z6" s="9">
+        <v>307080.5928297264</v>
+      </c>
+      <c r="Z6" s="12">
         <f t="shared" si="0"/>
-        <v>337886.85949798353</v>
-      </c>
-      <c r="AA6" s="9">
+        <v>325505.42839950998</v>
+      </c>
+      <c r="AA6" s="12">
         <f t="shared" si="0"/>
-        <v>354781.20247288275</v>
-      </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
+        <v>341780.69981948548</v>
+      </c>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
     <row r="7" spans="1:44">
       <c r="B7" t="s">
@@ -914,7 +951,10 @@
       <c r="I7" s="9">
         <v>7375</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <f>F7*1.17</f>
+        <v>9004.32</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9">
         <v>5454</v>
@@ -937,7 +977,10 @@
       <c r="R7" s="9">
         <v>25959</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="17">
+        <f>SUM(G7:J7)</f>
+        <v>30327.32</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -964,94 +1007,100 @@
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
     </row>
-    <row r="8" spans="1:44">
-      <c r="B8" t="s">
+    <row r="8" spans="1:44" s="15" customFormat="1">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>22537</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="16">
         <f>D6-D7</f>
         <v>26054</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="16">
         <f>E6-E7</f>
         <v>27936</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="16">
         <f t="shared" ref="F8:H8" si="1">F6-F7</f>
         <v>32416</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>29815</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="16">
         <f t="shared" si="1"/>
         <v>31763</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="16">
         <f>I6-I7</f>
         <v>33214</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
+      <c r="J8" s="16">
+        <f>J6-J7</f>
+        <v>37974.854400000004</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
         <f>L6-L7</f>
         <v>35199</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="16">
         <f>M6-M7</f>
         <v>46483</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="16">
         <f t="shared" ref="N8:O8" si="2">N6-N7</f>
         <v>57927</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="16">
         <f t="shared" si="2"/>
         <v>69273</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="16">
         <f>P6-P7</f>
         <v>95280</v>
       </c>
-      <c r="Q8" s="9">
-        <f t="shared" ref="Q8:R8" si="3">Q6-Q7</f>
+      <c r="Q8" s="16">
+        <f t="shared" ref="Q8:S8" si="3">Q6-Q7</f>
         <v>91360</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="16">
         <f t="shared" si="3"/>
         <v>108943</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
+      <c r="S8" s="16">
+        <f t="shared" si="3"/>
+        <v>132766.85440000001</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
     </row>
     <row r="9" spans="1:44">
       <c r="B9" t="s">
@@ -1079,7 +1128,10 @@
       <c r="I9" s="9">
         <v>11177</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9">
+        <f>I9</f>
+        <v>11177</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9">
         <v>7754</v>
@@ -1102,7 +1154,10 @@
       <c r="R9" s="9">
         <v>38483</v>
       </c>
-      <c r="S9" s="9"/>
+      <c r="S9" s="17">
+        <f>SUM(G9:J9)</f>
+        <v>42869</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -1155,7 +1210,10 @@
       <c r="I10" s="9">
         <v>2822</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9">
+        <f>I10</f>
+        <v>2822</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
         <v>4725</v>
@@ -1178,7 +1236,10 @@
       <c r="R10" s="9">
         <v>12301</v>
       </c>
-      <c r="S10" s="9"/>
+      <c r="S10" s="17">
+        <f>SUM(G10:J10)</f>
+        <v>10929</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1231,7 +1292,10 @@
       <c r="I11" s="9">
         <v>1865</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <f>I11</f>
+        <v>1865</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
         <v>2517</v>
@@ -1254,7 +1318,10 @@
       <c r="R11" s="9">
         <v>11408</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="17">
+        <f>SUM(G11:J11)</f>
+        <v>10843</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -1281,183 +1348,195 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
     </row>
-    <row r="12" spans="1:44">
-      <c r="B12" t="s">
+    <row r="12" spans="1:44" s="15" customFormat="1">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="16">
         <f>SUM(C9:C11)</f>
         <v>15310</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="16">
         <f>SUM(D9:D11)</f>
         <v>16662</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="16">
         <f>SUM(E9:E11)</f>
         <v>14188</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="16">
         <f t="shared" ref="F12:H12" si="4">SUM(F9:F11)</f>
         <v>16032</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="16">
         <f t="shared" si="4"/>
         <v>15997</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="16">
         <f t="shared" si="4"/>
         <v>16916</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="16">
         <f>SUM(I9:I11)</f>
         <v>15864</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
+      <c r="J12" s="16">
+        <f>SUM(J9:J11)</f>
+        <v>15864</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16">
         <f t="shared" ref="L12:M12" si="5">SUM(L9:L11)</f>
         <v>14996</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="16">
         <f t="shared" si="5"/>
         <v>21570</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="16">
         <f t="shared" ref="N12" si="6">SUM(N9:N11)</f>
         <v>33941</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="16">
         <f t="shared" ref="O12" si="7">SUM(O9:O11)</f>
         <v>36602</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="16">
         <f t="shared" ref="P12:Q12" si="8">SUM(P9:P11)</f>
         <v>48527</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="16">
         <f t="shared" si="8"/>
         <v>62416</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="16">
         <f>SUM(R9:R11)</f>
         <v>62192</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-    </row>
-    <row r="13" spans="1:44">
-      <c r="B13" t="s">
+      <c r="S12" s="16">
+        <f>SUM(S9:S11)</f>
+        <v>64641</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+    </row>
+    <row r="13" spans="1:44" s="15" customFormat="1">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="16">
         <f>C8-C12</f>
         <v>7227</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="16">
         <f>D8-D12</f>
         <v>9392</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="16">
         <f>E8-E12</f>
         <v>13748</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="16">
         <f t="shared" ref="F13:H13" si="9">F8-F12</f>
         <v>16384</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="16">
         <f t="shared" si="9"/>
         <v>13818</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="16">
         <f t="shared" si="9"/>
         <v>14847</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="16">
         <f>I8-I12</f>
         <v>17350</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
+      <c r="J13" s="16">
+        <f>J8-J12</f>
+        <v>22110.854400000004</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16">
         <f t="shared" ref="L13:M13" si="10">L8-L12</f>
         <v>20203</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="16">
         <f t="shared" si="10"/>
         <v>24913</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="16">
         <f t="shared" ref="N13" si="11">N8-N12</f>
         <v>23986</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="16">
         <f t="shared" ref="O13" si="12">O8-O12</f>
         <v>32671</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="16">
         <f t="shared" ref="P13:Q13" si="13">P8-P12</f>
         <v>46753</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="16">
         <f t="shared" si="13"/>
         <v>28944</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="16">
         <f>R8-R12</f>
         <v>46751</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
+      <c r="S13" s="16">
+        <f>S8-S12</f>
+        <v>68125.854400000011</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
     </row>
     <row r="14" spans="1:44">
       <c r="B14" t="s">
@@ -1485,7 +1564,10 @@
       <c r="I14" s="9">
         <v>472</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9">
+        <f>I14</f>
+        <v>472</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9">
         <v>391</v>
@@ -1508,7 +1590,10 @@
       <c r="R14" s="9">
         <v>677</v>
       </c>
-      <c r="S14" s="9"/>
+      <c r="S14" s="17">
+        <f>SUM(G14:J14)</f>
+        <v>1568</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1535,94 +1620,100 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
     </row>
-    <row r="15" spans="1:44">
-      <c r="B15" t="s">
+    <row r="15" spans="1:44" s="15" customFormat="1">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="16">
         <f>C13+C14</f>
         <v>7307</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="16">
         <f>D13+D14</f>
         <v>9293</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="16">
         <f>E13+E14</f>
         <v>14020</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="16">
         <f t="shared" ref="F15:H15" si="14">F13+F14</f>
         <v>16808</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="16">
         <f t="shared" si="14"/>
         <v>14183</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="16">
         <f t="shared" si="14"/>
         <v>15106</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="16">
         <f>I13+I14</f>
         <v>17822</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
+      <c r="J15" s="16">
+        <f>J13+J14</f>
+        <v>22582.854400000004</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16">
         <f t="shared" ref="L15:O15" si="15">L13+L14</f>
         <v>20594</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="16">
         <f t="shared" si="15"/>
         <v>25361</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="16">
         <f t="shared" si="15"/>
         <v>24812</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="16">
         <f t="shared" si="15"/>
         <v>33180</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="16">
         <f>P13+P14</f>
         <v>47284</v>
       </c>
-      <c r="Q15" s="9">
-        <f t="shared" ref="Q15:R15" si="16">Q13+Q14</f>
+      <c r="Q15" s="16">
+        <f t="shared" ref="Q15:S15" si="16">Q13+Q14</f>
         <v>28819</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="16">
         <f t="shared" si="16"/>
         <v>47428</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
+      <c r="S15" s="16">
+        <f t="shared" si="16"/>
+        <v>69693.854400000011</v>
+      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
     </row>
     <row r="16" spans="1:44">
       <c r="B16" t="s">
@@ -1650,7 +1741,10 @@
       <c r="I16" s="9">
         <v>2134</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9">
+        <f>J15*F24</f>
+        <v>3748.5818524512147</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
         <v>4660</v>
@@ -1673,7 +1767,10 @@
       <c r="R16" s="9">
         <v>8330</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="17">
+        <f>SUM(G16:J16)</f>
+        <v>9337.5818524512142</v>
+      </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -1700,559 +1797,562 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
     </row>
-    <row r="17" spans="2:141">
-      <c r="B17" t="s">
+    <row r="17" spans="2:141" s="13" customFormat="1">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="14">
         <f>C15-C16</f>
         <v>5709</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <f>D15-D16</f>
         <v>7788</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="14">
         <f>E15-E16</f>
         <v>11583</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="14">
         <f t="shared" ref="F17:H17" si="17">F15-F16</f>
         <v>14018</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="14">
         <f t="shared" si="17"/>
         <v>12369</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="14">
         <f t="shared" si="17"/>
         <v>13465</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="14">
         <f>I15-I16</f>
         <v>15688</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
+      <c r="J17" s="14">
+        <f>J15-J16</f>
+        <v>18834.27254754879</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
         <f t="shared" ref="L17:M17" si="18">L15-L16</f>
         <v>15934</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="14">
         <f t="shared" si="18"/>
         <v>22112</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="14">
         <f t="shared" ref="N17" si="19">N15-N16</f>
         <v>18485</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="14">
         <f t="shared" ref="O17" si="20">O15-O16</f>
         <v>29146</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="14">
         <f t="shared" ref="P17:Q17" si="21">P15-P16</f>
         <v>39370</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="14">
         <f t="shared" si="21"/>
         <v>23200</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="14">
         <f>R15-R16</f>
         <v>39098</v>
       </c>
-      <c r="S17" s="9">
-        <f>S6*S23</f>
-        <v>56785.329999999994</v>
-      </c>
-      <c r="T17" s="9">
+      <c r="S17" s="14">
+        <f>S15-S16</f>
+        <v>60356.272547548797</v>
+      </c>
+      <c r="T17" s="14">
         <f t="shared" ref="T17:AA17" si="22">T6*T23</f>
-        <v>68142.395999999979</v>
-      </c>
-      <c r="U17" s="9">
+        <v>65645.405195999992</v>
+      </c>
+      <c r="U17" s="14">
         <f t="shared" si="22"/>
-        <v>80602.719839999976</v>
-      </c>
-      <c r="V17" s="9">
+        <v>77649.136431840001</v>
+      </c>
+      <c r="V17" s="14">
         <f t="shared" si="22"/>
-        <v>90275.046220799981</v>
-      </c>
-      <c r="W17" s="9">
+        <v>86967.032803660797</v>
+      </c>
+      <c r="W17" s="14">
         <f t="shared" si="22"/>
-        <v>99302.550842879995</v>
-      </c>
-      <c r="X17" s="9">
+        <v>95663.736084026896</v>
+      </c>
+      <c r="X17" s="14">
         <f t="shared" si="22"/>
-        <v>107246.7549103104</v>
-      </c>
-      <c r="Y17" s="9">
+        <v>103316.83497074906</v>
+      </c>
+      <c r="Y17" s="14">
         <f t="shared" si="22"/>
-        <v>114754.02775403214</v>
-      </c>
-      <c r="Z17" s="9">
+        <v>110549.01341870151</v>
+      </c>
+      <c r="Z17" s="14">
         <f t="shared" si="22"/>
-        <v>121639.26941927406</v>
-      </c>
-      <c r="AA17" s="9">
+        <v>117181.95422382359</v>
+      </c>
+      <c r="AA17" s="14">
         <f t="shared" si="22"/>
-        <v>127721.23289023779</v>
-      </c>
-      <c r="AB17" s="9">
+        <v>123041.05193501477</v>
+      </c>
+      <c r="AB17" s="14">
         <f>AA17*(1+Main!$L$10)</f>
-        <v>128998.44521914017</v>
-      </c>
-      <c r="AC17" s="9">
+        <v>124271.46245436491</v>
+      </c>
+      <c r="AC17" s="14">
         <f>AB17*(1+Main!$L$10)</f>
-        <v>130288.42967133157</v>
-      </c>
-      <c r="AD17" s="9">
+        <v>125514.17707890856</v>
+      </c>
+      <c r="AD17" s="14">
         <f>AC17*(1+Main!$L$10)</f>
-        <v>131591.31396804488</v>
-      </c>
-      <c r="AE17" s="9">
+        <v>126769.31884969764</v>
+      </c>
+      <c r="AE17" s="14">
         <f>AD17*(1+Main!$L$10)</f>
-        <v>132907.22710772534</v>
-      </c>
-      <c r="AF17" s="9">
+        <v>128037.01203819462</v>
+      </c>
+      <c r="AF17" s="14">
         <f>AE17*(1+Main!$L$10)</f>
-        <v>134236.29937880259</v>
-      </c>
-      <c r="AG17" s="9">
+        <v>129317.38215857657</v>
+      </c>
+      <c r="AG17" s="14">
         <f>AF17*(1+Main!$L$10)</f>
-        <v>135578.66237259062</v>
-      </c>
-      <c r="AH17" s="9">
+        <v>130610.55598016233</v>
+      </c>
+      <c r="AH17" s="14">
         <f>AG17*(1+Main!$L$10)</f>
-        <v>136934.44899631653</v>
-      </c>
-      <c r="AI17" s="9">
+        <v>131916.66153996394</v>
+      </c>
+      <c r="AI17" s="14">
         <f>AH17*(1+Main!$L$10)</f>
-        <v>138303.7934862797</v>
-      </c>
-      <c r="AJ17" s="9">
+        <v>133235.82815536359</v>
+      </c>
+      <c r="AJ17" s="14">
         <f>AI17*(1+Main!$L$10)</f>
-        <v>139686.8314211425</v>
-      </c>
-      <c r="AK17" s="9">
+        <v>134568.18643691723</v>
+      </c>
+      <c r="AK17" s="14">
         <f>AJ17*(1+Main!$L$10)</f>
-        <v>141083.69973535393</v>
-      </c>
-      <c r="AL17" s="9">
+        <v>135913.86830128639</v>
+      </c>
+      <c r="AL17" s="14">
         <f>AK17*(1+Main!$L$10)</f>
-        <v>142494.53673270746</v>
-      </c>
-      <c r="AM17" s="9">
+        <v>137273.00698429925</v>
+      </c>
+      <c r="AM17" s="14">
         <f>AL17*(1+Main!$L$10)</f>
-        <v>143919.48210003454</v>
-      </c>
-      <c r="AN17" s="9">
+        <v>138645.73705414226</v>
+      </c>
+      <c r="AN17" s="14">
         <f>AM17*(1+Main!$L$10)</f>
-        <v>145358.6769210349</v>
-      </c>
-      <c r="AO17" s="9">
+        <v>140032.19442468369</v>
+      </c>
+      <c r="AO17" s="14">
         <f>AN17*(1+Main!$L$10)</f>
-        <v>146812.26369024525</v>
-      </c>
-      <c r="AP17" s="9">
+        <v>141432.51636893052</v>
+      </c>
+      <c r="AP17" s="14">
         <f>AO17*(1+Main!$L$10)</f>
-        <v>148280.38632714772</v>
-      </c>
-      <c r="AQ17" s="9">
+        <v>142846.84153261982</v>
+      </c>
+      <c r="AQ17" s="14">
         <f>AP17*(1+Main!$L$10)</f>
-        <v>149763.19019041921</v>
-      </c>
-      <c r="AR17" s="9">
+        <v>144275.30994794602</v>
+      </c>
+      <c r="AR17" s="14">
         <f>AQ17*(1+Main!$L$10)</f>
-        <v>151260.82209232339</v>
-      </c>
-      <c r="AS17" s="9">
+        <v>145718.06304742547</v>
+      </c>
+      <c r="AS17" s="14">
         <f>AR17*(1+Main!$L$10)</f>
-        <v>152773.43031324662</v>
-      </c>
-      <c r="AT17" s="9">
+        <v>147175.24367789974</v>
+      </c>
+      <c r="AT17" s="14">
         <f>AS17*(1+Main!$L$10)</f>
-        <v>154301.16461637907</v>
-      </c>
-      <c r="AU17" s="9">
+        <v>148646.99611467874</v>
+      </c>
+      <c r="AU17" s="14">
         <f>AT17*(1+Main!$L$10)</f>
-        <v>155844.17626254287</v>
-      </c>
-      <c r="AV17" s="9">
+        <v>150133.46607582553</v>
+      </c>
+      <c r="AV17" s="14">
         <f>AU17*(1+Main!$L$10)</f>
-        <v>157402.61802516831</v>
-      </c>
-      <c r="AW17" s="9">
+        <v>151634.8007365838</v>
+      </c>
+      <c r="AW17" s="14">
         <f>AV17*(1+Main!$L$10)</f>
-        <v>158976.64420541999</v>
-      </c>
-      <c r="AX17" s="9">
+        <v>153151.14874394963</v>
+      </c>
+      <c r="AX17" s="14">
         <f>AW17*(1+Main!$L$10)</f>
-        <v>160566.4106474742</v>
-      </c>
-      <c r="AY17" s="9">
+        <v>154682.66023138913</v>
+      </c>
+      <c r="AY17" s="14">
         <f>AX17*(1+Main!$L$10)</f>
-        <v>162172.07475394895</v>
-      </c>
-      <c r="AZ17" s="9">
+        <v>156229.48683370303</v>
+      </c>
+      <c r="AZ17" s="14">
         <f>AY17*(1+Main!$L$10)</f>
-        <v>163793.79550148844</v>
-      </c>
-      <c r="BA17" s="9">
+        <v>157791.78170204005</v>
+      </c>
+      <c r="BA17" s="14">
         <f>AZ17*(1+Main!$L$10)</f>
-        <v>165431.73345650331</v>
-      </c>
-      <c r="BB17" s="9">
+        <v>159369.69951906046</v>
+      </c>
+      <c r="BB17" s="14">
         <f>BA17*(1+Main!$L$10)</f>
-        <v>167086.05079106835</v>
-      </c>
-      <c r="BC17" s="9">
+        <v>160963.39651425107</v>
+      </c>
+      <c r="BC17" s="14">
         <f>BB17*(1+Main!$L$10)</f>
-        <v>168756.91129897904</v>
-      </c>
-      <c r="BD17" s="9">
+        <v>162573.03047939358</v>
+      </c>
+      <c r="BD17" s="14">
         <f>BC17*(1+Main!$L$10)</f>
-        <v>170444.48041196883</v>
-      </c>
-      <c r="BE17" s="9">
+        <v>164198.76078418753</v>
+      </c>
+      <c r="BE17" s="14">
         <f>BD17*(1+Main!$L$10)</f>
-        <v>172148.92521608854</v>
-      </c>
-      <c r="BF17" s="9">
+        <v>165840.7483920294</v>
+      </c>
+      <c r="BF17" s="14">
         <f>BE17*(1+Main!$L$10)</f>
-        <v>173870.41446824942</v>
-      </c>
-      <c r="BG17" s="9">
+        <v>167499.15587594971</v>
+      </c>
+      <c r="BG17" s="14">
         <f>BF17*(1+Main!$L$10)</f>
-        <v>175609.11861293192</v>
-      </c>
-      <c r="BH17" s="9">
+        <v>169174.14743470922</v>
+      </c>
+      <c r="BH17" s="14">
         <f>BG17*(1+Main!$L$10)</f>
-        <v>177365.20979906124</v>
-      </c>
-      <c r="BI17" s="9">
+        <v>170865.88890905632</v>
+      </c>
+      <c r="BI17" s="14">
         <f>BH17*(1+Main!$L$10)</f>
-        <v>179138.86189705186</v>
-      </c>
-      <c r="BJ17" s="9">
+        <v>172574.54779814687</v>
+      </c>
+      <c r="BJ17" s="14">
         <f>BI17*(1+Main!$L$10)</f>
-        <v>180930.25051602238</v>
-      </c>
-      <c r="BK17" s="9">
+        <v>174300.29327612833</v>
+      </c>
+      <c r="BK17" s="14">
         <f>BJ17*(1+Main!$L$10)</f>
-        <v>182739.5530211826</v>
-      </c>
-      <c r="BL17" s="9">
+        <v>176043.2962088896</v>
+      </c>
+      <c r="BL17" s="14">
         <f>BK17*(1+Main!$L$10)</f>
-        <v>184566.94855139442</v>
-      </c>
-      <c r="BM17" s="9">
+        <v>177803.72917097851</v>
+      </c>
+      <c r="BM17" s="14">
         <f>BL17*(1+Main!$L$10)</f>
-        <v>186412.61803690836</v>
-      </c>
-      <c r="BN17" s="9">
+        <v>179581.76646268831</v>
+      </c>
+      <c r="BN17" s="14">
         <f>BM17*(1+Main!$L$10)</f>
-        <v>188276.74421727745</v>
-      </c>
-      <c r="BO17" s="9">
+        <v>181377.5841273152</v>
+      </c>
+      <c r="BO17" s="14">
         <f>BN17*(1+Main!$L$10)</f>
-        <v>190159.51165945022</v>
-      </c>
-      <c r="BP17" s="9">
+        <v>183191.35996858837</v>
+      </c>
+      <c r="BP17" s="14">
         <f>BO17*(1+Main!$L$10)</f>
-        <v>192061.10677604473</v>
-      </c>
-      <c r="BQ17" s="9">
+        <v>185023.27356827425</v>
+      </c>
+      <c r="BQ17" s="14">
         <f>BP17*(1+Main!$L$10)</f>
-        <v>193981.71784380518</v>
-      </c>
-      <c r="BR17" s="9">
+        <v>186873.50630395699</v>
+      </c>
+      <c r="BR17" s="14">
         <f>BQ17*(1+Main!$L$10)</f>
-        <v>195921.53502224322</v>
-      </c>
-      <c r="BS17" s="9">
+        <v>188742.24136699658</v>
+      </c>
+      <c r="BS17" s="14">
         <f>BR17*(1+Main!$L$10)</f>
-        <v>197880.75037246564</v>
-      </c>
-      <c r="BT17" s="9">
+        <v>190629.66378066654</v>
+      </c>
+      <c r="BT17" s="14">
         <f>BS17*(1+Main!$L$10)</f>
-        <v>199859.55787619029</v>
-      </c>
-      <c r="BU17" s="9">
+        <v>192535.9604184732</v>
+      </c>
+      <c r="BU17" s="14">
         <f>BT17*(1+Main!$L$10)</f>
-        <v>201858.1534549522</v>
-      </c>
-      <c r="BV17" s="9">
+        <v>194461.32002265792</v>
+      </c>
+      <c r="BV17" s="14">
         <f>BU17*(1+Main!$L$10)</f>
-        <v>203876.73498950174</v>
-      </c>
-      <c r="BW17" s="9">
+        <v>196405.93322288452</v>
+      </c>
+      <c r="BW17" s="14">
         <f>BV17*(1+Main!$L$10)</f>
-        <v>205915.50233939677</v>
-      </c>
-      <c r="BX17" s="9">
+        <v>198369.99255511336</v>
+      </c>
+      <c r="BX17" s="14">
         <f>BW17*(1+Main!$L$10)</f>
-        <v>207974.65736279075</v>
-      </c>
-      <c r="BY17" s="9">
+        <v>200353.6924806645</v>
+      </c>
+      <c r="BY17" s="14">
         <f>BX17*(1+Main!$L$10)</f>
-        <v>210054.40393641865</v>
-      </c>
-      <c r="BZ17" s="9">
+        <v>202357.22940547115</v>
+      </c>
+      <c r="BZ17" s="14">
         <f>BY17*(1+Main!$L$10)</f>
-        <v>212154.94797578282</v>
-      </c>
-      <c r="CA17" s="9">
+        <v>204380.80169952588</v>
+      </c>
+      <c r="CA17" s="14">
         <f>BZ17*(1+Main!$L$10)</f>
-        <v>214276.49745554067</v>
-      </c>
-      <c r="CB17" s="9">
+        <v>206424.60971652114</v>
+      </c>
+      <c r="CB17" s="14">
         <f>CA17*(1+Main!$L$10)</f>
-        <v>216419.26243009607</v>
-      </c>
-      <c r="CC17" s="9">
+        <v>208488.85581368636</v>
+      </c>
+      <c r="CC17" s="14">
         <f>CB17*(1+Main!$L$10)</f>
-        <v>218583.45505439703</v>
-      </c>
-      <c r="CD17" s="9">
+        <v>210573.74437182321</v>
+      </c>
+      <c r="CD17" s="14">
         <f>CC17*(1+Main!$L$10)</f>
-        <v>220769.289604941</v>
-      </c>
-      <c r="CE17" s="9">
+        <v>212679.48181554145</v>
+      </c>
+      <c r="CE17" s="14">
         <f>CD17*(1+Main!$L$10)</f>
-        <v>222976.98250099042</v>
-      </c>
-      <c r="CF17" s="9">
+        <v>214806.27663369686</v>
+      </c>
+      <c r="CF17" s="14">
         <f>CE17*(1+Main!$L$10)</f>
-        <v>225206.75232600034</v>
-      </c>
-      <c r="CG17" s="9">
+        <v>216954.33940003384</v>
+      </c>
+      <c r="CG17" s="14">
         <f>CF17*(1+Main!$L$10)</f>
-        <v>227458.81984926036</v>
-      </c>
-      <c r="CH17" s="9">
+        <v>219123.88279403417</v>
+      </c>
+      <c r="CH17" s="14">
         <f>CG17*(1+Main!$L$10)</f>
-        <v>229733.40804775295</v>
-      </c>
-      <c r="CI17" s="9">
+        <v>221315.12162197451</v>
+      </c>
+      <c r="CI17" s="14">
         <f>CH17*(1+Main!$L$10)</f>
-        <v>232030.74212823049</v>
-      </c>
-      <c r="CJ17" s="9">
+        <v>223528.27283819427</v>
+      </c>
+      <c r="CJ17" s="14">
         <f>CI17*(1+Main!$L$10)</f>
-        <v>234351.0495495128</v>
-      </c>
-      <c r="CK17" s="9">
+        <v>225763.55556657622</v>
+      </c>
+      <c r="CK17" s="14">
         <f>CJ17*(1+Main!$L$10)</f>
-        <v>236694.56004500794</v>
-      </c>
-      <c r="CL17" s="9">
+        <v>228021.19112224199</v>
+      </c>
+      <c r="CL17" s="14">
         <f>CK17*(1+Main!$L$10)</f>
-        <v>239061.505645458</v>
-      </c>
-      <c r="CM17" s="9">
+        <v>230301.40303346442</v>
+      </c>
+      <c r="CM17" s="14">
         <f>CL17*(1+Main!$L$10)</f>
-        <v>241452.12070191259</v>
-      </c>
-      <c r="CN17" s="9">
+        <v>232604.41706379908</v>
+      </c>
+      <c r="CN17" s="14">
         <f>CM17*(1+Main!$L$10)</f>
-        <v>243866.64190893172</v>
-      </c>
-      <c r="CO17" s="9">
+        <v>234930.46123443707</v>
+      </c>
+      <c r="CO17" s="14">
         <f>CN17*(1+Main!$L$10)</f>
-        <v>246305.30832802103</v>
-      </c>
-      <c r="CP17" s="9">
+        <v>237279.76584678143</v>
+      </c>
+      <c r="CP17" s="14">
         <f>CO17*(1+Main!$L$10)</f>
-        <v>248768.36141130124</v>
-      </c>
-      <c r="CQ17" s="9">
+        <v>239652.56350524924</v>
+      </c>
+      <c r="CQ17" s="14">
         <f>CP17*(1+Main!$L$10)</f>
-        <v>251256.04502541426</v>
-      </c>
-      <c r="CR17" s="9">
+        <v>242049.08914030174</v>
+      </c>
+      <c r="CR17" s="14">
         <f>CQ17*(1+Main!$L$10)</f>
-        <v>253768.60547566842</v>
-      </c>
-      <c r="CS17" s="9">
+        <v>244469.58003170477</v>
+      </c>
+      <c r="CS17" s="14">
         <f>CR17*(1+Main!$L$10)</f>
-        <v>256306.29153042511</v>
-      </c>
-      <c r="CT17" s="9">
+        <v>246914.27583202181</v>
+      </c>
+      <c r="CT17" s="14">
         <f>CS17*(1+Main!$L$10)</f>
-        <v>258869.35444572935</v>
-      </c>
-      <c r="CU17" s="9">
+        <v>249383.41859034204</v>
+      </c>
+      <c r="CU17" s="14">
         <f>CT17*(1+Main!$L$10)</f>
-        <v>261458.04799018663</v>
-      </c>
-      <c r="CV17" s="9">
+        <v>251877.25277624547</v>
+      </c>
+      <c r="CV17" s="14">
         <f>CU17*(1+Main!$L$10)</f>
-        <v>264072.62847008853</v>
-      </c>
-      <c r="CW17" s="9">
+        <v>254396.02530400793</v>
+      </c>
+      <c r="CW17" s="14">
         <f>CV17*(1+Main!$L$10)</f>
-        <v>266713.35475478944</v>
-      </c>
-      <c r="CX17" s="9">
+        <v>256939.985557048</v>
+      </c>
+      <c r="CX17" s="14">
         <f>CW17*(1+Main!$L$10)</f>
-        <v>269380.48830233735</v>
-      </c>
-      <c r="CY17" s="9">
+        <v>259509.38541261849</v>
+      </c>
+      <c r="CY17" s="14">
         <f>CX17*(1+Main!$L$10)</f>
-        <v>272074.29318536073</v>
-      </c>
-      <c r="CZ17" s="9">
+        <v>262104.47926674469</v>
+      </c>
+      <c r="CZ17" s="14">
         <f>CY17*(1+Main!$L$10)</f>
-        <v>274795.03611721436</v>
-      </c>
-      <c r="DA17" s="9">
+        <v>264725.52405941213</v>
+      </c>
+      <c r="DA17" s="14">
         <f>CZ17*(1+Main!$L$10)</f>
-        <v>277542.98647838651</v>
-      </c>
-      <c r="DB17" s="9">
+        <v>267372.77930000622</v>
+      </c>
+      <c r="DB17" s="14">
         <f>DA17*(1+Main!$L$10)</f>
-        <v>280318.41634317039</v>
-      </c>
-      <c r="DC17" s="9">
+        <v>270046.50709300628</v>
+      </c>
+      <c r="DC17" s="14">
         <f>DB17*(1+Main!$L$10)</f>
-        <v>283121.60050660209</v>
-      </c>
-      <c r="DD17" s="9">
+        <v>272746.97216393636</v>
+      </c>
+      <c r="DD17" s="14">
         <f>DC17*(1+Main!$L$10)</f>
-        <v>285952.81651166809</v>
-      </c>
-      <c r="DE17" s="9">
+        <v>275474.44188557571</v>
+      </c>
+      <c r="DE17" s="14">
         <f>DD17*(1+Main!$L$10)</f>
-        <v>288812.34467678476</v>
-      </c>
-      <c r="DF17" s="9">
+        <v>278229.18630443147</v>
+      </c>
+      <c r="DF17" s="14">
         <f>DE17*(1+Main!$L$10)</f>
-        <v>291700.46812355262</v>
-      </c>
-      <c r="DG17" s="9">
+        <v>281011.47816747578</v>
+      </c>
+      <c r="DG17" s="14">
         <f>DF17*(1+Main!$L$10)</f>
-        <v>294617.47280478815</v>
-      </c>
-      <c r="DH17" s="9">
+        <v>283821.59294915054</v>
+      </c>
+      <c r="DH17" s="14">
         <f>DG17*(1+Main!$L$10)</f>
-        <v>297563.64753283601</v>
-      </c>
-      <c r="DI17" s="9">
+        <v>286659.80887864204</v>
+      </c>
+      <c r="DI17" s="14">
         <f>DH17*(1+Main!$L$10)</f>
-        <v>300539.28400816437</v>
-      </c>
-      <c r="DJ17" s="9">
+        <v>289526.40696742845</v>
+      </c>
+      <c r="DJ17" s="14">
         <f>DI17*(1+Main!$L$10)</f>
-        <v>303544.67684824602</v>
-      </c>
-      <c r="DK17" s="9">
+        <v>292421.67103710276</v>
+      </c>
+      <c r="DK17" s="14">
         <f>DJ17*(1+Main!$L$10)</f>
-        <v>306580.12361672847</v>
-      </c>
-      <c r="DL17" s="9">
+        <v>295345.88774747378</v>
+      </c>
+      <c r="DL17" s="14">
         <f>DK17*(1+Main!$L$10)</f>
-        <v>309645.92485289573</v>
-      </c>
-      <c r="DM17" s="9">
+        <v>298299.34662494855</v>
+      </c>
+      <c r="DM17" s="14">
         <f>DL17*(1+Main!$L$10)</f>
-        <v>312742.38410142466</v>
-      </c>
-      <c r="DN17" s="9">
+        <v>301282.34009119804</v>
+      </c>
+      <c r="DN17" s="14">
         <f>DM17*(1+Main!$L$10)</f>
-        <v>315869.80794243893</v>
-      </c>
-      <c r="DO17" s="9">
+        <v>304295.16349211003</v>
+      </c>
+      <c r="DO17" s="14">
         <f>DN17*(1+Main!$L$10)</f>
-        <v>319028.50602186332</v>
-      </c>
-      <c r="DP17" s="9">
+        <v>307338.11512703111</v>
+      </c>
+      <c r="DP17" s="14">
         <f>DO17*(1+Main!$L$10)</f>
-        <v>322218.79108208197</v>
-      </c>
-      <c r="DQ17" s="9">
+        <v>310411.49627830141</v>
+      </c>
+      <c r="DQ17" s="14">
         <f>DP17*(1+Main!$L$10)</f>
-        <v>325440.97899290279</v>
-      </c>
-      <c r="DR17" s="9">
+        <v>313515.61124108441</v>
+      </c>
+      <c r="DR17" s="14">
         <f>DQ17*(1+Main!$L$10)</f>
-        <v>328695.38878283184</v>
-      </c>
-      <c r="DS17" s="9">
+        <v>316650.76735349523</v>
+      </c>
+      <c r="DS17" s="14">
         <f>DR17*(1+Main!$L$10)</f>
-        <v>331982.34267066017</v>
-      </c>
-      <c r="DT17" s="9">
+        <v>319817.27502703021</v>
+      </c>
+      <c r="DT17" s="14">
         <f>DS17*(1+Main!$L$10)</f>
-        <v>335302.16609736677</v>
-      </c>
-      <c r="DU17" s="9">
+        <v>323015.44777730049</v>
+      </c>
+      <c r="DU17" s="14">
         <f>DT17*(1+Main!$L$10)</f>
-        <v>338655.18775834044</v>
-      </c>
-      <c r="DV17" s="9">
+        <v>326245.60225507349</v>
+      </c>
+      <c r="DV17" s="14">
         <f>DU17*(1+Main!$L$10)</f>
-        <v>342041.73963592388</v>
-      </c>
-      <c r="DW17" s="9">
+        <v>329508.05827762425</v>
+      </c>
+      <c r="DW17" s="14">
         <f>DV17*(1+Main!$L$10)</f>
-        <v>345462.15703228314</v>
-      </c>
-      <c r="DX17" s="9">
+        <v>332803.13886040048</v>
+      </c>
+      <c r="DX17" s="14">
         <f>DW17*(1+Main!$L$10)</f>
-        <v>348916.77860260598</v>
-      </c>
-      <c r="DY17" s="9">
+        <v>336131.1702490045</v>
+      </c>
+      <c r="DY17" s="14">
         <f>DX17*(1+Main!$L$10)</f>
-        <v>352405.94638863206</v>
-      </c>
-      <c r="DZ17" s="9">
+        <v>339492.48195149453</v>
+      </c>
+      <c r="DZ17" s="14">
         <f>DY17*(1+Main!$L$10)</f>
-        <v>355930.00585251837</v>
-      </c>
-      <c r="EA17" s="9">
+        <v>342887.4067710095</v>
+      </c>
+      <c r="EA17" s="14">
         <f>DZ17*(1+Main!$L$10)</f>
-        <v>359489.30591104354</v>
-      </c>
-      <c r="EB17" s="9">
+        <v>346316.28083871957</v>
+      </c>
+      <c r="EB17" s="14">
         <f>EA17*(1+Main!$L$10)</f>
-        <v>363084.19897015399</v>
-      </c>
-      <c r="EC17" s="9">
+        <v>349779.44364710676</v>
+      </c>
+      <c r="EC17" s="14">
         <f>EB17*(1+Main!$L$10)</f>
-        <v>366715.04095985554</v>
-      </c>
-      <c r="ED17" s="9">
+        <v>353277.23808357783</v>
+      </c>
+      <c r="ED17" s="14">
         <f>EC17*(1+Main!$L$10)</f>
-        <v>370382.19136945409</v>
-      </c>
-      <c r="EE17" s="9">
+        <v>356810.01046441362</v>
+      </c>
+      <c r="EE17" s="14">
         <f>ED17*(1+Main!$L$10)</f>
-        <v>374086.01328314864</v>
-      </c>
-      <c r="EF17" s="9">
+        <v>360378.11056905775</v>
+      </c>
+      <c r="EF17" s="14">
         <f>EE17*(1+Main!$L$10)</f>
-        <v>377826.87341598014</v>
-      </c>
-      <c r="EG17" s="9">
+        <v>363981.89167474833</v>
+      </c>
+      <c r="EG17" s="14">
         <f>EF17*(1+Main!$L$10)</f>
-        <v>381605.14215013996</v>
-      </c>
-      <c r="EH17" s="9">
+        <v>367621.71059149579</v>
+      </c>
+      <c r="EH17" s="14">
         <f>EG17*(1+Main!$L$10)</f>
-        <v>385421.19357164134</v>
-      </c>
-      <c r="EI17" s="9">
+        <v>371297.92769741075</v>
+      </c>
+      <c r="EI17" s="14">
         <f>EH17*(1+Main!$L$10)</f>
-        <v>389275.40550735773</v>
-      </c>
-      <c r="EJ17" s="9">
+        <v>375010.90697438485</v>
+      </c>
+      <c r="EJ17" s="14">
         <f>EI17*(1+Main!$L$10)</f>
-        <v>393168.15956243133</v>
-      </c>
-      <c r="EK17" s="9">
+        <v>378761.01604412869</v>
+      </c>
+      <c r="EK17" s="14">
         <f>EJ17*(1+Main!$L$10)</f>
-        <v>397099.84115805564</v>
+        <v>382548.62620457</v>
       </c>
     </row>
     <row r="18" spans="2:141">
@@ -2287,7 +2387,10 @@
         <f>I17/I19</f>
         <v>6.0338461538461541</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8">
+        <f>J17/J19</f>
+        <v>7.2719199025284906</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="8">
         <f t="shared" ref="L18:O18" si="24">L17/L19</f>
@@ -2310,14 +2413,17 @@
         <v>13.770549143057012</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" ref="Q18:R18" si="25">Q17/Q19</f>
+        <f t="shared" ref="Q18:S18" si="25">Q17/Q19</f>
         <v>8.5862324204293117</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="25"/>
         <v>14.871814378090528</v>
       </c>
-      <c r="S18" s="9"/>
+      <c r="S18" s="8">
+        <f t="shared" si="25"/>
+        <v>23.303580134188724</v>
+      </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2369,7 +2475,9 @@
       <c r="I19" s="9">
         <v>2600</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9">
+        <v>2590</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9">
         <v>2956</v>
@@ -2392,7 +2500,10 @@
       <c r="R19" s="9">
         <v>2629</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="9">
+        <f>J19</f>
+        <v>2590</v>
+      </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2511,10 +2622,10 @@
       </c>
       <c r="S21" s="10">
         <f>S6/R6-1</f>
-        <v>0.20267898177936572</v>
+        <v>0.20898262738877116</v>
       </c>
       <c r="T21" s="10">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="U21" s="10">
         <v>0.15</v>
@@ -2589,7 +2700,7 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.80833379651729254</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10">
@@ -2613,14 +2724,17 @@
         <v>0.80794376277251567</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" ref="Q22:R22" si="32">Q8/Q6</f>
+        <f t="shared" ref="Q22:S22" si="32">Q8/Q6</f>
         <v>0.78347297378418479</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" si="32"/>
         <v>0.8075714222176098</v>
       </c>
-      <c r="S22" s="9"/>
+      <c r="S22" s="10">
+        <f t="shared" si="32"/>
+        <v>0.81405025586248037</v>
+      </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2681,7 +2795,7 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.40090684410896732</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="10">
@@ -2705,7 +2819,7 @@
         <v>0.33384494059985248</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" ref="Q23:R23" si="37">Q17/Q6</f>
+        <f t="shared" ref="Q23:S23" si="37">Q17/Q6</f>
         <v>0.19895548371051977</v>
       </c>
       <c r="R23" s="10">
@@ -2713,7 +2827,8 @@
         <v>0.28982520644616094</v>
       </c>
       <c r="S23" s="10">
-        <v>0.35</v>
+        <f t="shared" si="37"/>
+        <v>0.37007007006590414</v>
       </c>
       <c r="T23" s="10">
         <v>0.35</v>
@@ -2786,14 +2901,17 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" ref="H24:I24" si="40">H16/H15</f>
+        <f t="shared" ref="H24:J24" si="40">H16/H15</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="40"/>
         <v>0.11973964762652901</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="10">
+        <f t="shared" si="40"/>
+        <v>0.16599238457877202</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10">
         <f t="shared" ref="L24" si="41">L16/L15</f>
@@ -2816,14 +2934,17 @@
         <v>0.16737162676592504</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" ref="Q24:R24" si="43">Q16/Q15</f>
+        <f t="shared" ref="Q24:S24" si="43">Q16/Q15</f>
         <v>0.19497553697213643</v>
       </c>
       <c r="R24" s="10">
         <f t="shared" si="43"/>
         <v>0.17563464620055663</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S24" s="10">
+        <f t="shared" si="43"/>
+        <v>0.13397998909429254</v>
+      </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
